--- a/Factor.xlsx
+++ b/Factor.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="754" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="754" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="2" r:id="rId1"/>
@@ -12,6 +12,8 @@
     <sheet name="f-23-abbas" sheetId="17" r:id="rId3"/>
     <sheet name="Esfahan-kharid" sheetId="18" r:id="rId4"/>
     <sheet name="f-24" sheetId="20" r:id="rId5"/>
+    <sheet name="f-25-m-101" sheetId="22" r:id="rId6"/>
+    <sheet name="f-25-m-102" sheetId="23" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1'!$A$7:$G$154</definedName>
@@ -20,6 +22,8 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">'f-22-tavana'!$A$1:$G$47</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'f-23-abbas'!$A$1:$G$47</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'f-24'!$A$1:$G$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'f-25-m-101'!$A$1:$G$65</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'f-25-m-102'!$A$1:$G$33</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'1'!$7:$7</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -32,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="300">
   <si>
     <t>نام محصول</t>
   </si>
@@ -926,6 +930,168 @@
   </si>
   <si>
     <t>هزینه پیک</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                 فاکتور فروش                                             شماره فاکتور : m-101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  صورت حساب آقای / خانم : مصطفی           شماره تماس : </t>
+  </si>
+  <si>
+    <t>پستیت شکلی فانتزی SKY</t>
+  </si>
+  <si>
+    <t>پاکن فابر کاستل مشکی</t>
+  </si>
+  <si>
+    <t>نوک اتود اونر 0.7</t>
+  </si>
+  <si>
+    <t>ماژیک هایلایت پنتر</t>
+  </si>
+  <si>
+    <t>خودکار کیان 4 رنگ اصلی</t>
+  </si>
+  <si>
+    <t>مداد رنگی 12 رنگ استایلیش</t>
+  </si>
+  <si>
+    <t>گواش 6 رنگ آریا</t>
+  </si>
+  <si>
+    <t>گواش 6 رنگ پارسیکار</t>
+  </si>
+  <si>
+    <t>پازل اعضای بدن</t>
+  </si>
+  <si>
+    <t>چتر کوچک</t>
+  </si>
+  <si>
+    <t>چتر بزرگ</t>
+  </si>
+  <si>
+    <t>روان نویس چشمی یونی بال 4 رنگ اصلی</t>
+  </si>
+  <si>
+    <t>اتود ووک فانتزی</t>
+  </si>
+  <si>
+    <t>چسب 72 یارد</t>
+  </si>
+  <si>
+    <t>دفتر 80 برگ طلقی ساده</t>
+  </si>
+  <si>
+    <t>دفتر 50 برگ طلقی</t>
+  </si>
+  <si>
+    <t>غلطگیر رومکس آبی</t>
+  </si>
+  <si>
+    <t>خودکار استابیلو</t>
+  </si>
+  <si>
+    <t>دفتر 100 برگ فنری جلد سخت شفیعی</t>
+  </si>
+  <si>
+    <t>ماژیک هایلایت ووک</t>
+  </si>
+  <si>
+    <t>کاتر واشین کوچک (کره‌ای)</t>
+  </si>
+  <si>
+    <t>اتود 0.3</t>
+  </si>
+  <si>
+    <t>نوک اتود 2B سی بی اس 0.5 و 0.7 Top cbs</t>
+  </si>
+  <si>
+    <t>نوک اتود ایمر 120تایی  0.7</t>
+  </si>
+  <si>
+    <t>نوک اتود HB سی بی اس 0.5 و 0.7 و 0.9</t>
+  </si>
+  <si>
+    <t>دوخت پارسیکار 212</t>
+  </si>
+  <si>
+    <t>پونز</t>
+  </si>
+  <si>
+    <t>دوخت کانگرو DS45</t>
+  </si>
+  <si>
+    <t>دوخت کانکس EW10</t>
+  </si>
+  <si>
+    <t>دوخت فیلیپ 5079</t>
+  </si>
+  <si>
+    <t>دوخت فیلیپ 5078</t>
+  </si>
+  <si>
+    <t>مداد رنگی مقوایی 24 پیکاسو</t>
+  </si>
+  <si>
+    <t>ساعت فومی بزرگ</t>
+  </si>
+  <si>
+    <t>دفتر 100 برگ طلقی</t>
+  </si>
+  <si>
+    <t>مداد رنگی مقوایی 12 پیکاسو خارجی</t>
+  </si>
+  <si>
+    <t>مداد رنگی مقوایی 12 فکتیس</t>
+  </si>
+  <si>
+    <t>مداد رنگی مقوایی 24 فکتیس</t>
+  </si>
+  <si>
+    <t>نوک اتود know سایز  0.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                 فاکتور فروش                                             شماره فاکتور :m-102</t>
+  </si>
+  <si>
+    <t>دفتر نقاشی بزرگ</t>
+  </si>
+  <si>
+    <t>دفتر 60 برگ سیمی طلقی پرسی کلاسیک ویژه 127</t>
+  </si>
+  <si>
+    <t>دفتر 60 برگ سیمی کلاسیک ویژه 121</t>
+  </si>
+  <si>
+    <t>دفتر 40 برگ سیمی فانتزی اکلیلی 101</t>
+  </si>
+  <si>
+    <t>دفتر 60 برگ سیمی فانتزی اکلیلی 102</t>
+  </si>
+  <si>
+    <t>دفتر 50 برگ ته چسب طرح شهدا شفیعی</t>
+  </si>
+  <si>
+    <t>دفتر شهدا کاما 50 برگی</t>
+  </si>
+  <si>
+    <t>دفتر 50 برگ فنری طرح حرم صالح</t>
+  </si>
+  <si>
+    <t>دفتر 80 برگ ته چسب طرح شهدا مشکات</t>
+  </si>
+  <si>
+    <t>دفتر 80 برگ فنری بچه های آسمان</t>
+  </si>
+  <si>
+    <t>دفتر 80 برگ فنری طرح حرم صالح</t>
+  </si>
+  <si>
+    <t>مدادمشکی فکتیس NEGRO9000</t>
+  </si>
+  <si>
+    <t>دفتر 40 برگ سیمی نقاشی 301</t>
   </si>
 </sst>
 </file>
@@ -1360,7 +1526,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1579,6 +1745,36 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1910,8 +2106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H162"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" view="pageBreakPreview" topLeftCell="A146" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="B154" sqref="B154"/>
+    <sheetView showGridLines="0" rightToLeft="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.55000000000000004"/>
@@ -1936,48 +2132,48 @@
       <c r="G1" s="30"/>
     </row>
     <row r="2" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="94" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="86"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="96"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="97" t="s">
         <v>166</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="89"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="99"/>
     </row>
     <row r="4" spans="1:8" ht="27" x14ac:dyDescent="0.85">
-      <c r="A4" s="87" t="s">
+      <c r="A4" s="97" t="s">
         <v>165</v>
       </c>
-      <c r="B4" s="88"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="89"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="99"/>
     </row>
     <row r="5" spans="1:8" ht="23.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="87" t="s">
+      <c r="A5" s="97" t="s">
         <v>161</v>
       </c>
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="89"/>
+      <c r="B5" s="98"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="99"/>
     </row>
     <row r="6" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="31"/>
@@ -5540,14 +5736,14 @@
       <c r="H154" s="19"/>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A155" s="95"/>
-      <c r="B155" s="96"/>
-      <c r="C155" s="96"/>
-      <c r="D155" s="96"/>
-      <c r="E155" s="93" t="s">
+      <c r="A155" s="105"/>
+      <c r="B155" s="106"/>
+      <c r="C155" s="106"/>
+      <c r="D155" s="106"/>
+      <c r="E155" s="103" t="s">
         <v>162</v>
       </c>
-      <c r="F155" s="93"/>
+      <c r="F155" s="103"/>
       <c r="G155" s="43">
         <f>G157+G156</f>
         <v>13084520</v>
@@ -5561,10 +5757,10 @@
       <c r="B156" s="26"/>
       <c r="C156" s="20"/>
       <c r="D156" s="20"/>
-      <c r="E156" s="94" t="s">
+      <c r="E156" s="104" t="s">
         <v>163</v>
       </c>
-      <c r="F156" s="94"/>
+      <c r="F156" s="104"/>
       <c r="G156" s="45">
         <v>225258</v>
       </c>
@@ -5577,10 +5773,10 @@
       <c r="B157" s="26"/>
       <c r="C157" s="13"/>
       <c r="D157" s="13"/>
-      <c r="E157" s="94" t="s">
+      <c r="E157" s="104" t="s">
         <v>164</v>
       </c>
-      <c r="F157" s="94"/>
+      <c r="F157" s="104"/>
       <c r="G157" s="45">
         <f>SUM(G8:G154)</f>
         <v>12859262</v>
@@ -5609,26 +5805,26 @@
       <c r="G159" s="48"/>
     </row>
     <row r="160" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A160" s="87" t="s">
+      <c r="A160" s="97" t="s">
         <v>171</v>
       </c>
-      <c r="B160" s="88"/>
-      <c r="C160" s="88"/>
-      <c r="D160" s="88"/>
+      <c r="B160" s="98"/>
+      <c r="C160" s="98"/>
+      <c r="D160" s="98"/>
       <c r="E160" s="13"/>
       <c r="F160" s="13"/>
       <c r="G160" s="48"/>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A161" s="90" t="s">
+      <c r="A161" s="100" t="s">
         <v>170</v>
       </c>
-      <c r="B161" s="91"/>
-      <c r="C161" s="91"/>
-      <c r="D161" s="91"/>
-      <c r="E161" s="91"/>
-      <c r="F161" s="91"/>
-      <c r="G161" s="92"/>
+      <c r="B161" s="101"/>
+      <c r="C161" s="101"/>
+      <c r="D161" s="101"/>
+      <c r="E161" s="101"/>
+      <c r="F161" s="101"/>
+      <c r="G161" s="102"/>
     </row>
     <row r="162" spans="1:7" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A162" s="49"/>
@@ -5685,48 +5881,48 @@
       <c r="G1" s="30"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="107" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="99"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="109"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="100" t="s">
         <v>186</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="92"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="102"/>
     </row>
     <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.85">
-      <c r="A4" s="90" t="s">
+      <c r="A4" s="100" t="s">
         <v>187</v>
       </c>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="92"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="102"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="87" t="s">
+      <c r="A5" s="97" t="s">
         <v>184</v>
       </c>
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="89"/>
+      <c r="B5" s="98"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="99"/>
     </row>
     <row r="6" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="31"/>
@@ -6331,10 +6527,10 @@
       <c r="B39" s="63"/>
       <c r="C39" s="63"/>
       <c r="D39" s="63"/>
-      <c r="E39" s="93" t="s">
+      <c r="E39" s="103" t="s">
         <v>162</v>
       </c>
-      <c r="F39" s="93"/>
+      <c r="F39" s="103"/>
       <c r="G39" s="69">
         <f>SUM(G8:G38)</f>
         <v>1297800</v>
@@ -6347,10 +6543,10 @@
       <c r="B40" s="26"/>
       <c r="C40" s="61"/>
       <c r="D40" s="61"/>
-      <c r="E40" s="94" t="s">
+      <c r="E40" s="104" t="s">
         <v>163</v>
       </c>
-      <c r="F40" s="94"/>
+      <c r="F40" s="104"/>
       <c r="G40" s="70">
         <v>800</v>
       </c>
@@ -6362,10 +6558,10 @@
       <c r="B41" s="26"/>
       <c r="C41" s="61"/>
       <c r="D41" s="61"/>
-      <c r="E41" s="94" t="s">
+      <c r="E41" s="104" t="s">
         <v>185</v>
       </c>
-      <c r="F41" s="94"/>
+      <c r="F41" s="104"/>
       <c r="G41" s="70">
         <v>124000</v>
       </c>
@@ -6377,10 +6573,10 @@
       <c r="B42" s="26"/>
       <c r="C42" s="58"/>
       <c r="D42" s="58"/>
-      <c r="E42" s="94" t="s">
+      <c r="E42" s="104" t="s">
         <v>164</v>
       </c>
-      <c r="F42" s="94"/>
+      <c r="F42" s="104"/>
       <c r="G42" s="70">
         <f>ROUND(G39-G40+G41,0)</f>
         <v>1421000</v>
@@ -6418,15 +6614,15 @@
       <c r="G45" s="59"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="90" t="s">
+      <c r="A46" s="100" t="s">
         <v>170</v>
       </c>
-      <c r="B46" s="91"/>
-      <c r="C46" s="91"/>
-      <c r="D46" s="91"/>
-      <c r="E46" s="91"/>
-      <c r="F46" s="91"/>
-      <c r="G46" s="92"/>
+      <c r="B46" s="101"/>
+      <c r="C46" s="101"/>
+      <c r="D46" s="101"/>
+      <c r="E46" s="101"/>
+      <c r="F46" s="101"/>
+      <c r="G46" s="102"/>
     </row>
     <row r="47" spans="1:7" ht="60.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A47" s="49"/>
@@ -6483,48 +6679,48 @@
       <c r="G1" s="30"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="107" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="99"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="109"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="100" t="s">
         <v>189</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="92"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="102"/>
     </row>
     <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.85">
-      <c r="A4" s="90" t="s">
+      <c r="A4" s="100" t="s">
         <v>187</v>
       </c>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="92"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="102"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="87" t="s">
+      <c r="A5" s="97" t="s">
         <v>188</v>
       </c>
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="89"/>
+      <c r="B5" s="98"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="99"/>
     </row>
     <row r="6" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="31"/>
@@ -7207,10 +7403,10 @@
       <c r="B39" s="63"/>
       <c r="C39" s="63"/>
       <c r="D39" s="63"/>
-      <c r="E39" s="93" t="s">
+      <c r="E39" s="103" t="s">
         <v>162</v>
       </c>
-      <c r="F39" s="93"/>
+      <c r="F39" s="103"/>
       <c r="G39" s="69">
         <f>SUM(G8:G38)</f>
         <v>2298550</v>
@@ -7223,10 +7419,10 @@
       <c r="B40" s="26"/>
       <c r="C40" s="61"/>
       <c r="D40" s="61"/>
-      <c r="E40" s="94" t="s">
+      <c r="E40" s="104" t="s">
         <v>163</v>
       </c>
-      <c r="F40" s="94"/>
+      <c r="F40" s="104"/>
       <c r="G40" s="70">
         <v>550</v>
       </c>
@@ -7238,10 +7434,10 @@
       <c r="B41" s="26"/>
       <c r="C41" s="61"/>
       <c r="D41" s="61"/>
-      <c r="E41" s="94" t="s">
+      <c r="E41" s="104" t="s">
         <v>185</v>
       </c>
-      <c r="F41" s="94"/>
+      <c r="F41" s="104"/>
       <c r="G41" s="70">
         <v>380000</v>
       </c>
@@ -7253,10 +7449,10 @@
       <c r="B42" s="26"/>
       <c r="C42" s="58"/>
       <c r="D42" s="58"/>
-      <c r="E42" s="94" t="s">
+      <c r="E42" s="104" t="s">
         <v>164</v>
       </c>
-      <c r="F42" s="94"/>
+      <c r="F42" s="104"/>
       <c r="G42" s="70">
         <f>G39-G40+G41</f>
         <v>2678000</v>
@@ -7294,15 +7490,15 @@
       <c r="G45" s="59"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="90" t="s">
+      <c r="A46" s="100" t="s">
         <v>170</v>
       </c>
-      <c r="B46" s="91"/>
-      <c r="C46" s="91"/>
-      <c r="D46" s="91"/>
-      <c r="E46" s="91"/>
-      <c r="F46" s="91"/>
-      <c r="G46" s="92"/>
+      <c r="B46" s="101"/>
+      <c r="C46" s="101"/>
+      <c r="D46" s="101"/>
+      <c r="E46" s="101"/>
+      <c r="F46" s="101"/>
+      <c r="G46" s="102"/>
     </row>
     <row r="47" spans="1:7" ht="60.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A47" s="49"/>
@@ -8039,10 +8235,10 @@
       <c r="B33" s="72"/>
       <c r="C33" s="72"/>
       <c r="D33" s="72"/>
-      <c r="E33" s="93" t="s">
+      <c r="E33" s="103" t="s">
         <v>162</v>
       </c>
-      <c r="F33" s="93"/>
+      <c r="F33" s="103"/>
       <c r="G33" s="69">
         <f>SUM(G2:G32)</f>
         <v>4559099.2</v>
@@ -8062,8 +8258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView showGridLines="0" rightToLeft="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.55000000000000004"/>
@@ -8086,48 +8282,48 @@
       <c r="G1" s="82"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="107" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="99"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="109"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="100" t="s">
         <v>242</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="92"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="102"/>
     </row>
     <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.85">
-      <c r="A4" s="90" t="s">
+      <c r="A4" s="100" t="s">
         <v>244</v>
       </c>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="92"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="102"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="87" t="s">
+      <c r="A5" s="97" t="s">
         <v>243</v>
       </c>
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="89"/>
+      <c r="B5" s="98"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="99"/>
     </row>
     <row r="6" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="31"/>
@@ -8724,10 +8920,10 @@
       <c r="B39" s="79"/>
       <c r="C39" s="79"/>
       <c r="D39" s="79"/>
-      <c r="E39" s="93" t="s">
+      <c r="E39" s="103" t="s">
         <v>162</v>
       </c>
-      <c r="F39" s="93"/>
+      <c r="F39" s="103"/>
       <c r="G39" s="69">
         <f>SUM(G8:G38)</f>
         <v>1378700</v>
@@ -8740,10 +8936,10 @@
       <c r="B40" s="26"/>
       <c r="C40" s="77"/>
       <c r="D40" s="77"/>
-      <c r="E40" s="94" t="s">
+      <c r="E40" s="104" t="s">
         <v>163</v>
       </c>
-      <c r="F40" s="94"/>
+      <c r="F40" s="104"/>
       <c r="G40" s="70">
         <v>700</v>
       </c>
@@ -8755,10 +8951,10 @@
       <c r="B41" s="26"/>
       <c r="C41" s="77"/>
       <c r="D41" s="77"/>
-      <c r="E41" s="94" t="s">
+      <c r="E41" s="104" t="s">
         <v>185</v>
       </c>
-      <c r="F41" s="94"/>
+      <c r="F41" s="104"/>
       <c r="G41" s="70">
         <v>1421000</v>
       </c>
@@ -8770,10 +8966,10 @@
       <c r="B42" s="26"/>
       <c r="C42" s="74"/>
       <c r="D42" s="74"/>
-      <c r="E42" s="94" t="s">
+      <c r="E42" s="104" t="s">
         <v>164</v>
       </c>
-      <c r="F42" s="94"/>
+      <c r="F42" s="104"/>
       <c r="G42" s="70">
         <f>G39-G40+G41</f>
         <v>2799000</v>
@@ -8811,15 +9007,15 @@
       <c r="G45" s="75"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="90" t="s">
+      <c r="A46" s="100" t="s">
         <v>170</v>
       </c>
-      <c r="B46" s="91"/>
-      <c r="C46" s="91"/>
-      <c r="D46" s="91"/>
-      <c r="E46" s="91"/>
-      <c r="F46" s="91"/>
-      <c r="G46" s="92"/>
+      <c r="B46" s="101"/>
+      <c r="C46" s="101"/>
+      <c r="D46" s="101"/>
+      <c r="E46" s="101"/>
+      <c r="F46" s="101"/>
+      <c r="G46" s="102"/>
     </row>
     <row r="47" spans="1:7" ht="60.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A47" s="49"/>
@@ -8846,4 +9042,1944 @@
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="84" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G65"/>
+  <sheetViews>
+    <sheetView showGridLines="0" rightToLeft="1" topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="6" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.69921875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="5.8984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.3984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.296875" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.796875" style="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="91"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="93"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="107" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="109"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="100" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="102"/>
+    </row>
+    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.85">
+      <c r="A4" s="100" t="s">
+        <v>244</v>
+      </c>
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="102"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="97" t="s">
+        <v>247</v>
+      </c>
+      <c r="B5" s="98"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="99"/>
+    </row>
+    <row r="6" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A6" s="31"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="32"/>
+    </row>
+    <row r="7" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="53">
+        <v>1</v>
+      </c>
+      <c r="B8" s="54" t="s">
+        <v>177</v>
+      </c>
+      <c r="C8" s="55">
+        <v>6</v>
+      </c>
+      <c r="D8" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="66">
+        <v>11000</v>
+      </c>
+      <c r="F8" s="56"/>
+      <c r="G8" s="64">
+        <f>C8*E8</f>
+        <v>66000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="37">
+        <f>A8+1</f>
+        <v>2</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C9" s="8">
+        <v>42</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="67">
+        <v>3000</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="65">
+        <f t="shared" ref="G9:G16" si="0">C9*E9</f>
+        <v>126000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="53">
+        <f t="shared" ref="A10:A56" si="1">A9+1</f>
+        <v>3</v>
+      </c>
+      <c r="B10" s="54" t="s">
+        <v>249</v>
+      </c>
+      <c r="C10" s="55">
+        <v>1</v>
+      </c>
+      <c r="D10" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="66">
+        <v>140000</v>
+      </c>
+      <c r="F10" s="56"/>
+      <c r="G10" s="64">
+        <f>C10*E10</f>
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="37">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="8">
+        <v>12</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="67">
+        <v>18800</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="65">
+        <f>C11*E11</f>
+        <v>225600</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="53">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B12" s="54" t="s">
+        <v>193</v>
+      </c>
+      <c r="C12" s="55">
+        <v>12</v>
+      </c>
+      <c r="D12" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="66">
+        <v>10500</v>
+      </c>
+      <c r="F12" s="56"/>
+      <c r="G12" s="64">
+        <f t="shared" ref="G12:G14" si="2">C12*E12</f>
+        <v>126000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="37">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="C13" s="8">
+        <v>12</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="67">
+        <v>4000</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="65">
+        <f t="shared" si="2"/>
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="53">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B14" s="54" t="s">
+        <v>250</v>
+      </c>
+      <c r="C14" s="55">
+        <v>12</v>
+      </c>
+      <c r="D14" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="66">
+        <v>4000</v>
+      </c>
+      <c r="F14" s="56"/>
+      <c r="G14" s="64">
+        <f t="shared" si="2"/>
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="37">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="8">
+        <v>12</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="67">
+        <v>3800</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="65">
+        <f t="shared" si="0"/>
+        <v>45600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="53">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B16" s="54" t="s">
+        <v>251</v>
+      </c>
+      <c r="C16" s="55">
+        <v>10</v>
+      </c>
+      <c r="D16" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="66">
+        <v>6000</v>
+      </c>
+      <c r="F16" s="56"/>
+      <c r="G16" s="64">
+        <f t="shared" si="0"/>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="37">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C17" s="8">
+        <v>200</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="67">
+        <v>1300</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="65">
+        <f>C17*E17</f>
+        <v>260000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="53">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B18" s="54" t="s">
+        <v>298</v>
+      </c>
+      <c r="C18" s="55">
+        <v>120</v>
+      </c>
+      <c r="D18" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="66">
+        <v>1450</v>
+      </c>
+      <c r="F18" s="56"/>
+      <c r="G18" s="64">
+        <f t="shared" ref="G18:G56" si="3">C18*E18</f>
+        <v>174000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="37">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C19" s="8">
+        <v>6</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="67">
+        <v>16000</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" s="65">
+        <f t="shared" si="3"/>
+        <v>96000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="53">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B20" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="55">
+        <v>12</v>
+      </c>
+      <c r="D20" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="66">
+        <v>18900</v>
+      </c>
+      <c r="F20" s="56"/>
+      <c r="G20" s="64">
+        <f t="shared" si="3"/>
+        <v>226800</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="37">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C21" s="8">
+        <v>24</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="67">
+        <v>3900</v>
+      </c>
+      <c r="F21" s="5"/>
+      <c r="G21" s="65">
+        <f t="shared" si="3"/>
+        <v>93600</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="53">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B22" s="54" t="s">
+        <v>254</v>
+      </c>
+      <c r="C22" s="55">
+        <v>1</v>
+      </c>
+      <c r="D22" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="66">
+        <v>19500</v>
+      </c>
+      <c r="F22" s="56"/>
+      <c r="G22" s="64">
+        <f t="shared" si="3"/>
+        <v>19500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="37">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C23" s="8">
+        <v>2</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="67">
+        <v>18000</v>
+      </c>
+      <c r="F23" s="5"/>
+      <c r="G23" s="65">
+        <f t="shared" si="3"/>
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="53">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B24" s="54" t="s">
+        <v>256</v>
+      </c>
+      <c r="C24" s="55">
+        <v>6</v>
+      </c>
+      <c r="D24" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="66">
+        <v>10000</v>
+      </c>
+      <c r="F24" s="56"/>
+      <c r="G24" s="64">
+        <f t="shared" si="3"/>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="37">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="C25" s="8">
+        <v>3</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="67">
+        <v>55000</v>
+      </c>
+      <c r="F25" s="5"/>
+      <c r="G25" s="65">
+        <f t="shared" si="3"/>
+        <v>165000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="53">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B26" s="54" t="s">
+        <v>258</v>
+      </c>
+      <c r="C26" s="55">
+        <v>3</v>
+      </c>
+      <c r="D26" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="66">
+        <v>65000</v>
+      </c>
+      <c r="F26" s="56"/>
+      <c r="G26" s="64">
+        <f t="shared" si="3"/>
+        <v>195000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="37">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C27" s="8">
+        <v>10</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="67">
+        <v>10000</v>
+      </c>
+      <c r="F27" s="5"/>
+      <c r="G27" s="65">
+        <f t="shared" si="3"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="53">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="B28" s="54" t="s">
+        <v>260</v>
+      </c>
+      <c r="C28" s="55">
+        <v>36</v>
+      </c>
+      <c r="D28" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="66">
+        <v>10800</v>
+      </c>
+      <c r="F28" s="56"/>
+      <c r="G28" s="64">
+        <f t="shared" si="3"/>
+        <v>388800</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="37">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C29" s="8">
+        <v>10</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="67">
+        <v>6500</v>
+      </c>
+      <c r="F29" s="5"/>
+      <c r="G29" s="65">
+        <f t="shared" si="3"/>
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="53">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="B30" s="54" t="s">
+        <v>215</v>
+      </c>
+      <c r="C30" s="55">
+        <v>15</v>
+      </c>
+      <c r="D30" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="66">
+        <v>4000</v>
+      </c>
+      <c r="F30" s="56"/>
+      <c r="G30" s="64">
+        <f t="shared" si="3"/>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="37">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C31" s="8">
+        <v>12</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="67">
+        <v>6100</v>
+      </c>
+      <c r="F31" s="5"/>
+      <c r="G31" s="65">
+        <f t="shared" si="3"/>
+        <v>73200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="53">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="B32" s="54" t="s">
+        <v>263</v>
+      </c>
+      <c r="C32" s="55">
+        <v>15</v>
+      </c>
+      <c r="D32" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="66">
+        <v>4000</v>
+      </c>
+      <c r="F32" s="56"/>
+      <c r="G32" s="64">
+        <f t="shared" si="3"/>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="37">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C33" s="8">
+        <v>24</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="67">
+        <v>2000</v>
+      </c>
+      <c r="F33" s="5"/>
+      <c r="G33" s="65">
+        <f t="shared" si="3"/>
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="53">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="B34" s="54" t="s">
+        <v>265</v>
+      </c>
+      <c r="C34" s="55">
+        <v>30</v>
+      </c>
+      <c r="D34" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="66">
+        <v>1190</v>
+      </c>
+      <c r="F34" s="56"/>
+      <c r="G34" s="64">
+        <f t="shared" si="3"/>
+        <v>35700</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="37">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C35" s="8">
+        <v>12</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="67">
+        <v>11000</v>
+      </c>
+      <c r="F35" s="5"/>
+      <c r="G35" s="65">
+        <f t="shared" si="3"/>
+        <v>132000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="53">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="B36" s="54" t="s">
+        <v>267</v>
+      </c>
+      <c r="C36" s="55">
+        <v>12</v>
+      </c>
+      <c r="D36" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="66">
+        <v>5000</v>
+      </c>
+      <c r="F36" s="56"/>
+      <c r="G36" s="64">
+        <f t="shared" si="3"/>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="37">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C37" s="8">
+        <v>10</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="67">
+        <v>10000</v>
+      </c>
+      <c r="F37" s="5"/>
+      <c r="G37" s="65">
+        <f t="shared" si="3"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="53">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="B38" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38" s="55">
+        <v>2</v>
+      </c>
+      <c r="D38" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="E38" s="66">
+        <v>13500</v>
+      </c>
+      <c r="F38" s="56"/>
+      <c r="G38" s="64">
+        <f t="shared" si="3"/>
+        <v>27000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="37">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C39" s="8">
+        <v>19</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39" s="67">
+        <v>18000</v>
+      </c>
+      <c r="F39" s="5"/>
+      <c r="G39" s="65">
+        <f t="shared" si="3"/>
+        <v>342000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="53">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="B40" s="54" t="s">
+        <v>270</v>
+      </c>
+      <c r="C40" s="55">
+        <v>12</v>
+      </c>
+      <c r="D40" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="E40" s="66">
+        <v>3200</v>
+      </c>
+      <c r="F40" s="56"/>
+      <c r="G40" s="64">
+        <f t="shared" si="3"/>
+        <v>38400</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="37">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C41" s="8">
+        <v>12</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41" s="67">
+        <v>5000</v>
+      </c>
+      <c r="F41" s="5"/>
+      <c r="G41" s="65">
+        <f t="shared" si="3"/>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="53">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="B42" s="54" t="s">
+        <v>272</v>
+      </c>
+      <c r="C42" s="55">
+        <v>12</v>
+      </c>
+      <c r="D42" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" s="66">
+        <v>3200</v>
+      </c>
+      <c r="F42" s="56"/>
+      <c r="G42" s="64">
+        <f t="shared" si="3"/>
+        <v>38400</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="37">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C43" s="8">
+        <v>3</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="67">
+        <v>70000</v>
+      </c>
+      <c r="F43" s="5"/>
+      <c r="G43" s="65">
+        <f t="shared" si="3"/>
+        <v>210000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="53">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="B44" s="54" t="s">
+        <v>274</v>
+      </c>
+      <c r="C44" s="55">
+        <v>10</v>
+      </c>
+      <c r="D44" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="E44" s="66">
+        <v>2500</v>
+      </c>
+      <c r="F44" s="56"/>
+      <c r="G44" s="64">
+        <f t="shared" si="3"/>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="37">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C45" s="8">
+        <v>2</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" s="67">
+        <v>70000</v>
+      </c>
+      <c r="F45" s="5"/>
+      <c r="G45" s="65">
+        <f t="shared" si="3"/>
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="53">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="B46" s="54" t="s">
+        <v>276</v>
+      </c>
+      <c r="C46" s="55">
+        <v>3</v>
+      </c>
+      <c r="D46" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" s="66">
+        <v>30000</v>
+      </c>
+      <c r="F46" s="56"/>
+      <c r="G46" s="64">
+        <f t="shared" si="3"/>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="37">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C47" s="8">
+        <v>3</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" s="67">
+        <v>60000</v>
+      </c>
+      <c r="F47" s="5"/>
+      <c r="G47" s="65">
+        <f t="shared" si="3"/>
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="53">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="B48" s="54" t="s">
+        <v>278</v>
+      </c>
+      <c r="C48" s="55">
+        <v>3</v>
+      </c>
+      <c r="D48" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" s="66">
+        <v>50000</v>
+      </c>
+      <c r="F48" s="56"/>
+      <c r="G48" s="64">
+        <f t="shared" si="3"/>
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="37">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C49" s="8">
+        <v>24</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E49" s="67">
+        <v>55000</v>
+      </c>
+      <c r="F49" s="5"/>
+      <c r="G49" s="65">
+        <f t="shared" si="3"/>
+        <v>1320000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="53">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="B50" s="54" t="s">
+        <v>282</v>
+      </c>
+      <c r="C50" s="55">
+        <v>12</v>
+      </c>
+      <c r="D50" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="E50" s="66">
+        <v>29000</v>
+      </c>
+      <c r="F50" s="56"/>
+      <c r="G50" s="64">
+        <f t="shared" si="3"/>
+        <v>348000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="37">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="C51" s="8">
+        <v>12</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E51" s="67">
+        <v>22750</v>
+      </c>
+      <c r="F51" s="5"/>
+      <c r="G51" s="65">
+        <f t="shared" si="3"/>
+        <v>273000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="53">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="B52" s="54" t="s">
+        <v>284</v>
+      </c>
+      <c r="C52" s="55">
+        <v>6</v>
+      </c>
+      <c r="D52" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" s="66">
+        <v>45500</v>
+      </c>
+      <c r="F52" s="56"/>
+      <c r="G52" s="64">
+        <f t="shared" si="3"/>
+        <v>273000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="37">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="C53" s="8">
+        <v>5</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53" s="67">
+        <v>5000</v>
+      </c>
+      <c r="F53" s="5"/>
+      <c r="G53" s="65">
+        <f t="shared" si="3"/>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="53">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="B54" s="54" t="s">
+        <v>281</v>
+      </c>
+      <c r="C54" s="55">
+        <v>15</v>
+      </c>
+      <c r="D54" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" s="66">
+        <v>7000</v>
+      </c>
+      <c r="F54" s="56"/>
+      <c r="G54" s="64">
+        <f t="shared" si="3"/>
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="37">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="B55" s="4"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="67"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A56" s="53">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="B56" s="54"/>
+      <c r="C56" s="55"/>
+      <c r="D56" s="55"/>
+      <c r="E56" s="66"/>
+      <c r="F56" s="56"/>
+      <c r="G56" s="64">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="18.600000000000001" x14ac:dyDescent="0.6">
+      <c r="A57" s="89"/>
+      <c r="B57" s="90"/>
+      <c r="C57" s="90"/>
+      <c r="D57" s="90"/>
+      <c r="E57" s="103" t="s">
+        <v>162</v>
+      </c>
+      <c r="F57" s="103"/>
+      <c r="G57" s="69">
+        <f>SUM(G8:G56)</f>
+        <v>6978600</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="18.600000000000001" x14ac:dyDescent="0.6">
+      <c r="A58" s="44" t="s">
+        <v>169</v>
+      </c>
+      <c r="B58" s="26"/>
+      <c r="C58" s="88"/>
+      <c r="D58" s="88"/>
+      <c r="E58" s="104" t="s">
+        <v>163</v>
+      </c>
+      <c r="F58" s="104"/>
+      <c r="G58" s="70">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="18.600000000000001" x14ac:dyDescent="0.6">
+      <c r="A59" s="44" t="s">
+        <v>168</v>
+      </c>
+      <c r="B59" s="26"/>
+      <c r="C59" s="88"/>
+      <c r="D59" s="88"/>
+      <c r="E59" s="104" t="s">
+        <v>185</v>
+      </c>
+      <c r="F59" s="104"/>
+      <c r="G59" s="70">
+        <v>1421000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="18.600000000000001" x14ac:dyDescent="0.6">
+      <c r="A60" s="44" t="s">
+        <v>167</v>
+      </c>
+      <c r="B60" s="26"/>
+      <c r="C60" s="85"/>
+      <c r="D60" s="85"/>
+      <c r="E60" s="104" t="s">
+        <v>164</v>
+      </c>
+      <c r="F60" s="104"/>
+      <c r="G60" s="70">
+        <f>G57-G58+G59</f>
+        <v>8398900</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="47" t="s">
+        <v>172</v>
+      </c>
+      <c r="B61" s="85"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="25"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="25"/>
+      <c r="G61" s="46"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="84" t="s">
+        <v>171</v>
+      </c>
+      <c r="B62" s="85"/>
+      <c r="C62" s="85"/>
+      <c r="D62" s="85"/>
+      <c r="E62" s="85"/>
+      <c r="F62" s="85"/>
+      <c r="G62" s="86"/>
+    </row>
+    <row r="63" spans="1:7" ht="4.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="87"/>
+      <c r="B63" s="68"/>
+      <c r="C63" s="85"/>
+      <c r="D63" s="85"/>
+      <c r="E63" s="85"/>
+      <c r="F63" s="85"/>
+      <c r="G63" s="86"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="100" t="s">
+        <v>170</v>
+      </c>
+      <c r="B64" s="101"/>
+      <c r="C64" s="101"/>
+      <c r="D64" s="101"/>
+      <c r="E64" s="101"/>
+      <c r="F64" s="101"/>
+      <c r="G64" s="102"/>
+    </row>
+    <row r="65" spans="1:7" ht="60.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A65" s="49"/>
+      <c r="B65" s="50"/>
+      <c r="C65" s="51"/>
+      <c r="D65" s="51"/>
+      <c r="E65" s="51"/>
+      <c r="F65" s="51"/>
+      <c r="G65" s="52"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="A64:G64"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="84" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G33"/>
+  <sheetViews>
+    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="6" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.69921875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="5.8984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.3984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.296875" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.796875" style="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="91"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="93"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="107" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="109"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="100" t="s">
+        <v>286</v>
+      </c>
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="102"/>
+    </row>
+    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.85">
+      <c r="A4" s="100" t="s">
+        <v>244</v>
+      </c>
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="102"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="97" t="s">
+        <v>247</v>
+      </c>
+      <c r="B5" s="98"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="99"/>
+    </row>
+    <row r="6" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A6" s="31"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="32"/>
+    </row>
+    <row r="7" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="53">
+        <v>1</v>
+      </c>
+      <c r="B8" s="54" t="s">
+        <v>287</v>
+      </c>
+      <c r="C8" s="55">
+        <v>26</v>
+      </c>
+      <c r="D8" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="66">
+        <v>4100</v>
+      </c>
+      <c r="F8" s="56"/>
+      <c r="G8" s="64">
+        <f>C8*E8</f>
+        <v>106600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="37">
+        <f>A8+1</f>
+        <v>2</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="C9" s="8">
+        <v>24</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="67">
+        <v>6050</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="65">
+        <f t="shared" ref="G9:G16" si="0">C9*E9</f>
+        <v>145200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="53">
+        <f t="shared" ref="A10:A24" si="1">A9+1</f>
+        <v>3</v>
+      </c>
+      <c r="B10" s="54" t="s">
+        <v>288</v>
+      </c>
+      <c r="C10" s="55">
+        <v>36</v>
+      </c>
+      <c r="D10" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="66">
+        <v>9750</v>
+      </c>
+      <c r="F10" s="56"/>
+      <c r="G10" s="64">
+        <f>C10*E10</f>
+        <v>351000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="37">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="C11" s="8">
+        <v>36</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="67">
+        <v>7650</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="65">
+        <f>C11*E11</f>
+        <v>275400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="53">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B12" s="54" t="s">
+        <v>290</v>
+      </c>
+      <c r="C12" s="55">
+        <v>36</v>
+      </c>
+      <c r="D12" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="66">
+        <v>6050</v>
+      </c>
+      <c r="F12" s="56"/>
+      <c r="G12" s="64">
+        <f t="shared" ref="G12:G14" si="2">C12*E12</f>
+        <v>217800</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="37">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C13" s="8">
+        <v>24</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="67">
+        <v>9750</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="65">
+        <f t="shared" si="2"/>
+        <v>234000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="53">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B14" s="54" t="s">
+        <v>291</v>
+      </c>
+      <c r="C14" s="55">
+        <v>24</v>
+      </c>
+      <c r="D14" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="66">
+        <v>7700</v>
+      </c>
+      <c r="F14" s="56"/>
+      <c r="G14" s="64">
+        <f t="shared" si="2"/>
+        <v>184800</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="37">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="8">
+        <v>23</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="67">
+        <v>6500</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="65">
+        <f t="shared" si="0"/>
+        <v>149500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="53">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B16" s="54" t="s">
+        <v>292</v>
+      </c>
+      <c r="C16" s="55">
+        <v>21</v>
+      </c>
+      <c r="D16" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="66">
+        <v>5500</v>
+      </c>
+      <c r="F16" s="56"/>
+      <c r="G16" s="64">
+        <f t="shared" si="0"/>
+        <v>115500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="37">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C17" s="8">
+        <v>14</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="67">
+        <v>7000</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="65">
+        <f>C17*E17</f>
+        <v>98000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="53">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B18" s="54" t="s">
+        <v>294</v>
+      </c>
+      <c r="C18" s="55">
+        <v>41</v>
+      </c>
+      <c r="D18" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="66">
+        <v>7500</v>
+      </c>
+      <c r="F18" s="56"/>
+      <c r="G18" s="64">
+        <f t="shared" ref="G18:G24" si="3">C18*E18</f>
+        <v>307500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="37">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="C19" s="8">
+        <v>22</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="67">
+        <v>8500</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" s="65">
+        <f t="shared" si="3"/>
+        <v>187000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="53">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B20" s="54" t="s">
+        <v>296</v>
+      </c>
+      <c r="C20" s="55">
+        <v>63</v>
+      </c>
+      <c r="D20" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="66">
+        <v>10000</v>
+      </c>
+      <c r="F20" s="56"/>
+      <c r="G20" s="64">
+        <f t="shared" si="3"/>
+        <v>630000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="37">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="C21" s="8">
+        <v>31</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="67">
+        <v>11000</v>
+      </c>
+      <c r="F21" s="5"/>
+      <c r="G21" s="65">
+        <f t="shared" si="3"/>
+        <v>341000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="53">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B22" s="54"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="64">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="37">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A24" s="53">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B24" s="54"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="64">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="18.600000000000001" x14ac:dyDescent="0.6">
+      <c r="A25" s="89"/>
+      <c r="B25" s="90"/>
+      <c r="C25" s="90"/>
+      <c r="D25" s="90"/>
+      <c r="E25" s="103" t="s">
+        <v>162</v>
+      </c>
+      <c r="F25" s="103"/>
+      <c r="G25" s="69">
+        <f>SUM(G8:G24)</f>
+        <v>3343300</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="18.600000000000001" x14ac:dyDescent="0.6">
+      <c r="A26" s="44" t="s">
+        <v>169</v>
+      </c>
+      <c r="B26" s="26"/>
+      <c r="C26" s="88"/>
+      <c r="D26" s="88"/>
+      <c r="E26" s="104" t="s">
+        <v>163</v>
+      </c>
+      <c r="F26" s="104"/>
+      <c r="G26" s="70">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="18.600000000000001" x14ac:dyDescent="0.6">
+      <c r="A27" s="44" t="s">
+        <v>168</v>
+      </c>
+      <c r="B27" s="26"/>
+      <c r="C27" s="88"/>
+      <c r="D27" s="88"/>
+      <c r="E27" s="104" t="s">
+        <v>185</v>
+      </c>
+      <c r="F27" s="104"/>
+      <c r="G27" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="18.600000000000001" x14ac:dyDescent="0.6">
+      <c r="A28" s="44" t="s">
+        <v>167</v>
+      </c>
+      <c r="B28" s="26"/>
+      <c r="C28" s="85"/>
+      <c r="D28" s="85"/>
+      <c r="E28" s="104" t="s">
+        <v>164</v>
+      </c>
+      <c r="F28" s="104"/>
+      <c r="G28" s="70">
+        <f>G25-G26+G27</f>
+        <v>3343000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="47" t="s">
+        <v>172</v>
+      </c>
+      <c r="B29" s="85"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="46"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="84" t="s">
+        <v>171</v>
+      </c>
+      <c r="B30" s="85"/>
+      <c r="C30" s="85"/>
+      <c r="D30" s="85"/>
+      <c r="E30" s="85"/>
+      <c r="F30" s="85"/>
+      <c r="G30" s="86"/>
+    </row>
+    <row r="31" spans="1:7" ht="4.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="87"/>
+      <c r="B31" s="68"/>
+      <c r="C31" s="85"/>
+      <c r="D31" s="85"/>
+      <c r="E31" s="85"/>
+      <c r="F31" s="85"/>
+      <c r="G31" s="86"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="100" t="s">
+        <v>170</v>
+      </c>
+      <c r="B32" s="101"/>
+      <c r="C32" s="101"/>
+      <c r="D32" s="101"/>
+      <c r="E32" s="101"/>
+      <c r="F32" s="101"/>
+      <c r="G32" s="102"/>
+    </row>
+    <row r="33" spans="1:7" ht="60.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A33" s="49"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="52"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="84" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Factor.xlsx
+++ b/Factor.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="754" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="754" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="2" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="f-24" sheetId="20" r:id="rId5"/>
     <sheet name="f-25-m-101" sheetId="22" r:id="rId6"/>
     <sheet name="f-25-m-102" sheetId="23" r:id="rId7"/>
+    <sheet name="f-27" sheetId="24" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1'!$A$7:$G$154</definedName>
@@ -24,6 +25,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="4">'f-24'!$A$1:$G$47</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'f-25-m-101'!$A$1:$G$65</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'f-25-m-102'!$A$1:$G$33</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">'f-27'!$A$1:$G$66</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'1'!$7:$7</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="341">
   <si>
     <t>نام محصول</t>
   </si>
@@ -1092,6 +1094,181 @@
   </si>
   <si>
     <t>دفتر 40 برگ سیمی نقاشی 301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                 فاکتور فروش                                             شماره فاکتور : 00423</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                                                         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="B Nazanin"/>
+        <charset val="178"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="B Nazanin"/>
+        <charset val="178"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="B Nazanin"/>
+        <charset val="178"/>
+      </rPr>
+      <t xml:space="preserve">پخش نوشت افزار بامداد  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="B Nazanin"/>
+        <charset val="178"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="B Nazanin"/>
+        <charset val="178"/>
+      </rPr>
+      <t xml:space="preserve">                     تاریخ :  1399/10/18</t>
+    </r>
+  </si>
+  <si>
+    <t>تراش رومیزی فانتزی /774</t>
+  </si>
+  <si>
+    <t>تراش رومیزی فانتزی /627</t>
+  </si>
+  <si>
+    <t>تراش رومیزی فانتزی /632</t>
+  </si>
+  <si>
+    <t>تراش رومیزی فانتزی 742</t>
+  </si>
+  <si>
+    <t>پایه چسب فانتزی فیل</t>
+  </si>
+  <si>
+    <t>مداد مشکی فکتیس ذغالی</t>
+  </si>
+  <si>
+    <t>پوشال کاغذی</t>
+  </si>
+  <si>
+    <t>پوشال رنگی</t>
+  </si>
+  <si>
+    <t>پایه چسب نوین 200</t>
+  </si>
+  <si>
+    <t>منچ گرد</t>
+  </si>
+  <si>
+    <t>پازل رحلی</t>
+  </si>
+  <si>
+    <t>کتاب آموزشی مفاهیم داستان - رنگ آمیزی 9*31</t>
+  </si>
+  <si>
+    <t>استامپ کورس کوچک</t>
+  </si>
+  <si>
+    <t>خودکار کیان رنگی</t>
+  </si>
+  <si>
+    <t>نوار چسب قوطی</t>
+  </si>
+  <si>
+    <t>دفتر طراحی A4</t>
+  </si>
+  <si>
+    <t>شیطونک ژله ای</t>
+  </si>
+  <si>
+    <t>جاقلمی شهاب</t>
+  </si>
+  <si>
+    <t>حروف الفبا مگنت</t>
+  </si>
+  <si>
+    <t>تخته وایت MDF</t>
+  </si>
+  <si>
+    <t>ماژیک هایلایت دوسر</t>
+  </si>
+  <si>
+    <t>پاکن میوه</t>
+  </si>
+  <si>
+    <t>بادکنک ساده</t>
+  </si>
+  <si>
+    <t>مقوا 50*70 رنگی دو رو</t>
+  </si>
+  <si>
+    <t>خاک رس</t>
+  </si>
+  <si>
+    <t>سرمدادی</t>
+  </si>
+  <si>
+    <t>مدادرنگی 36 فلزی ووک</t>
+  </si>
+  <si>
+    <t>مداد و سرمدادی عروسکی</t>
+  </si>
+  <si>
+    <t>روبیک مجیک</t>
+  </si>
+  <si>
+    <t>تراش رو میزی پارسیکار 888</t>
+  </si>
+  <si>
+    <t>ماژیک طلایی - نقره ای</t>
+  </si>
+  <si>
+    <t>چراغ مطالعه کرم</t>
+  </si>
+  <si>
+    <t>نوار چسب کاغذی فانتزی</t>
+  </si>
+  <si>
+    <t>پایه چسب سپهر</t>
+  </si>
+  <si>
+    <t>نوارچسب کریستال جانسون</t>
+  </si>
+  <si>
+    <t>جاقلمی رنگی</t>
+  </si>
+  <si>
+    <t>پایه چسب نوین 500</t>
+  </si>
+  <si>
+    <t>دماسنج گیتار</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  صورت حساب آقای / خانم : عباس نژاد          شماره تماس : </t>
   </si>
 </sst>
 </file>
@@ -1526,7 +1703,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1745,6 +1922,36 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2132,48 +2339,48 @@
       <c r="G1" s="30"/>
     </row>
     <row r="2" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="104" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="96"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="106"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="97" t="s">
+      <c r="A3" s="107" t="s">
         <v>166</v>
       </c>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="99"/>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="109"/>
     </row>
     <row r="4" spans="1:8" ht="27" x14ac:dyDescent="0.85">
-      <c r="A4" s="97" t="s">
+      <c r="A4" s="107" t="s">
         <v>165</v>
       </c>
-      <c r="B4" s="98"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="99"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="109"/>
     </row>
     <row r="5" spans="1:8" ht="23.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="97" t="s">
+      <c r="A5" s="107" t="s">
         <v>161</v>
       </c>
-      <c r="B5" s="98"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="99"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="109"/>
     </row>
     <row r="6" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="31"/>
@@ -5736,14 +5943,14 @@
       <c r="H154" s="19"/>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A155" s="105"/>
-      <c r="B155" s="106"/>
-      <c r="C155" s="106"/>
-      <c r="D155" s="106"/>
-      <c r="E155" s="103" t="s">
+      <c r="A155" s="115"/>
+      <c r="B155" s="116"/>
+      <c r="C155" s="116"/>
+      <c r="D155" s="116"/>
+      <c r="E155" s="113" t="s">
         <v>162</v>
       </c>
-      <c r="F155" s="103"/>
+      <c r="F155" s="113"/>
       <c r="G155" s="43">
         <f>G157+G156</f>
         <v>13084520</v>
@@ -5757,10 +5964,10 @@
       <c r="B156" s="26"/>
       <c r="C156" s="20"/>
       <c r="D156" s="20"/>
-      <c r="E156" s="104" t="s">
+      <c r="E156" s="114" t="s">
         <v>163</v>
       </c>
-      <c r="F156" s="104"/>
+      <c r="F156" s="114"/>
       <c r="G156" s="45">
         <v>225258</v>
       </c>
@@ -5773,10 +5980,10 @@
       <c r="B157" s="26"/>
       <c r="C157" s="13"/>
       <c r="D157" s="13"/>
-      <c r="E157" s="104" t="s">
+      <c r="E157" s="114" t="s">
         <v>164</v>
       </c>
-      <c r="F157" s="104"/>
+      <c r="F157" s="114"/>
       <c r="G157" s="45">
         <f>SUM(G8:G154)</f>
         <v>12859262</v>
@@ -5805,26 +6012,26 @@
       <c r="G159" s="48"/>
     </row>
     <row r="160" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A160" s="97" t="s">
+      <c r="A160" s="107" t="s">
         <v>171</v>
       </c>
-      <c r="B160" s="98"/>
-      <c r="C160" s="98"/>
-      <c r="D160" s="98"/>
+      <c r="B160" s="108"/>
+      <c r="C160" s="108"/>
+      <c r="D160" s="108"/>
       <c r="E160" s="13"/>
       <c r="F160" s="13"/>
       <c r="G160" s="48"/>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A161" s="100" t="s">
+      <c r="A161" s="110" t="s">
         <v>170</v>
       </c>
-      <c r="B161" s="101"/>
-      <c r="C161" s="101"/>
-      <c r="D161" s="101"/>
-      <c r="E161" s="101"/>
-      <c r="F161" s="101"/>
-      <c r="G161" s="102"/>
+      <c r="B161" s="111"/>
+      <c r="C161" s="111"/>
+      <c r="D161" s="111"/>
+      <c r="E161" s="111"/>
+      <c r="F161" s="111"/>
+      <c r="G161" s="112"/>
     </row>
     <row r="162" spans="1:7" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A162" s="49"/>
@@ -5881,48 +6088,48 @@
       <c r="G1" s="30"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="107" t="s">
+      <c r="A2" s="117" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="109"/>
+      <c r="B2" s="118"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="119"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="110" t="s">
         <v>186</v>
       </c>
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="102"/>
+      <c r="B3" s="111"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="112"/>
     </row>
     <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.85">
-      <c r="A4" s="100" t="s">
+      <c r="A4" s="110" t="s">
         <v>187</v>
       </c>
-      <c r="B4" s="101"/>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="102"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="112"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="97" t="s">
+      <c r="A5" s="107" t="s">
         <v>184</v>
       </c>
-      <c r="B5" s="98"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="99"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="109"/>
     </row>
     <row r="6" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="31"/>
@@ -6527,10 +6734,10 @@
       <c r="B39" s="63"/>
       <c r="C39" s="63"/>
       <c r="D39" s="63"/>
-      <c r="E39" s="103" t="s">
+      <c r="E39" s="113" t="s">
         <v>162</v>
       </c>
-      <c r="F39" s="103"/>
+      <c r="F39" s="113"/>
       <c r="G39" s="69">
         <f>SUM(G8:G38)</f>
         <v>1297800</v>
@@ -6543,10 +6750,10 @@
       <c r="B40" s="26"/>
       <c r="C40" s="61"/>
       <c r="D40" s="61"/>
-      <c r="E40" s="104" t="s">
+      <c r="E40" s="114" t="s">
         <v>163</v>
       </c>
-      <c r="F40" s="104"/>
+      <c r="F40" s="114"/>
       <c r="G40" s="70">
         <v>800</v>
       </c>
@@ -6558,10 +6765,10 @@
       <c r="B41" s="26"/>
       <c r="C41" s="61"/>
       <c r="D41" s="61"/>
-      <c r="E41" s="104" t="s">
+      <c r="E41" s="114" t="s">
         <v>185</v>
       </c>
-      <c r="F41" s="104"/>
+      <c r="F41" s="114"/>
       <c r="G41" s="70">
         <v>124000</v>
       </c>
@@ -6573,10 +6780,10 @@
       <c r="B42" s="26"/>
       <c r="C42" s="58"/>
       <c r="D42" s="58"/>
-      <c r="E42" s="104" t="s">
+      <c r="E42" s="114" t="s">
         <v>164</v>
       </c>
-      <c r="F42" s="104"/>
+      <c r="F42" s="114"/>
       <c r="G42" s="70">
         <f>ROUND(G39-G40+G41,0)</f>
         <v>1421000</v>
@@ -6614,15 +6821,15 @@
       <c r="G45" s="59"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="100" t="s">
+      <c r="A46" s="110" t="s">
         <v>170</v>
       </c>
-      <c r="B46" s="101"/>
-      <c r="C46" s="101"/>
-      <c r="D46" s="101"/>
-      <c r="E46" s="101"/>
-      <c r="F46" s="101"/>
-      <c r="G46" s="102"/>
+      <c r="B46" s="111"/>
+      <c r="C46" s="111"/>
+      <c r="D46" s="111"/>
+      <c r="E46" s="111"/>
+      <c r="F46" s="111"/>
+      <c r="G46" s="112"/>
     </row>
     <row r="47" spans="1:7" ht="60.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A47" s="49"/>
@@ -6679,48 +6886,48 @@
       <c r="G1" s="30"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="107" t="s">
+      <c r="A2" s="117" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="109"/>
+      <c r="B2" s="118"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="119"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="110" t="s">
         <v>189</v>
       </c>
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="102"/>
+      <c r="B3" s="111"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="112"/>
     </row>
     <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.85">
-      <c r="A4" s="100" t="s">
+      <c r="A4" s="110" t="s">
         <v>187</v>
       </c>
-      <c r="B4" s="101"/>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="102"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="112"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="97" t="s">
+      <c r="A5" s="107" t="s">
         <v>188</v>
       </c>
-      <c r="B5" s="98"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="99"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="109"/>
     </row>
     <row r="6" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="31"/>
@@ -7403,10 +7610,10 @@
       <c r="B39" s="63"/>
       <c r="C39" s="63"/>
       <c r="D39" s="63"/>
-      <c r="E39" s="103" t="s">
+      <c r="E39" s="113" t="s">
         <v>162</v>
       </c>
-      <c r="F39" s="103"/>
+      <c r="F39" s="113"/>
       <c r="G39" s="69">
         <f>SUM(G8:G38)</f>
         <v>2298550</v>
@@ -7419,10 +7626,10 @@
       <c r="B40" s="26"/>
       <c r="C40" s="61"/>
       <c r="D40" s="61"/>
-      <c r="E40" s="104" t="s">
+      <c r="E40" s="114" t="s">
         <v>163</v>
       </c>
-      <c r="F40" s="104"/>
+      <c r="F40" s="114"/>
       <c r="G40" s="70">
         <v>550</v>
       </c>
@@ -7434,10 +7641,10 @@
       <c r="B41" s="26"/>
       <c r="C41" s="61"/>
       <c r="D41" s="61"/>
-      <c r="E41" s="104" t="s">
+      <c r="E41" s="114" t="s">
         <v>185</v>
       </c>
-      <c r="F41" s="104"/>
+      <c r="F41" s="114"/>
       <c r="G41" s="70">
         <v>380000</v>
       </c>
@@ -7449,10 +7656,10 @@
       <c r="B42" s="26"/>
       <c r="C42" s="58"/>
       <c r="D42" s="58"/>
-      <c r="E42" s="104" t="s">
+      <c r="E42" s="114" t="s">
         <v>164</v>
       </c>
-      <c r="F42" s="104"/>
+      <c r="F42" s="114"/>
       <c r="G42" s="70">
         <f>G39-G40+G41</f>
         <v>2678000</v>
@@ -7490,15 +7697,15 @@
       <c r="G45" s="59"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="100" t="s">
+      <c r="A46" s="110" t="s">
         <v>170</v>
       </c>
-      <c r="B46" s="101"/>
-      <c r="C46" s="101"/>
-      <c r="D46" s="101"/>
-      <c r="E46" s="101"/>
-      <c r="F46" s="101"/>
-      <c r="G46" s="102"/>
+      <c r="B46" s="111"/>
+      <c r="C46" s="111"/>
+      <c r="D46" s="111"/>
+      <c r="E46" s="111"/>
+      <c r="F46" s="111"/>
+      <c r="G46" s="112"/>
     </row>
     <row r="47" spans="1:7" ht="60.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A47" s="49"/>
@@ -7532,7 +7739,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView showGridLines="0" rightToLeft="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="B2" sqref="A2:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.55000000000000004"/>
@@ -8235,10 +8442,10 @@
       <c r="B33" s="72"/>
       <c r="C33" s="72"/>
       <c r="D33" s="72"/>
-      <c r="E33" s="103" t="s">
+      <c r="E33" s="113" t="s">
         <v>162</v>
       </c>
-      <c r="F33" s="103"/>
+      <c r="F33" s="113"/>
       <c r="G33" s="69">
         <f>SUM(G2:G32)</f>
         <v>4559099.2</v>
@@ -8258,7 +8465,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView showGridLines="0" rightToLeft="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
@@ -8282,48 +8489,48 @@
       <c r="G1" s="82"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="107" t="s">
+      <c r="A2" s="117" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="109"/>
+      <c r="B2" s="118"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="119"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="110" t="s">
         <v>242</v>
       </c>
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="102"/>
+      <c r="B3" s="111"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="112"/>
     </row>
     <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.85">
-      <c r="A4" s="100" t="s">
+      <c r="A4" s="110" t="s">
         <v>244</v>
       </c>
-      <c r="B4" s="101"/>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="102"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="112"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="97" t="s">
+      <c r="A5" s="107" t="s">
         <v>243</v>
       </c>
-      <c r="B5" s="98"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="99"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="109"/>
     </row>
     <row r="6" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="31"/>
@@ -8920,10 +9127,10 @@
       <c r="B39" s="79"/>
       <c r="C39" s="79"/>
       <c r="D39" s="79"/>
-      <c r="E39" s="103" t="s">
+      <c r="E39" s="113" t="s">
         <v>162</v>
       </c>
-      <c r="F39" s="103"/>
+      <c r="F39" s="113"/>
       <c r="G39" s="69">
         <f>SUM(G8:G38)</f>
         <v>1378700</v>
@@ -8936,10 +9143,10 @@
       <c r="B40" s="26"/>
       <c r="C40" s="77"/>
       <c r="D40" s="77"/>
-      <c r="E40" s="104" t="s">
+      <c r="E40" s="114" t="s">
         <v>163</v>
       </c>
-      <c r="F40" s="104"/>
+      <c r="F40" s="114"/>
       <c r="G40" s="70">
         <v>700</v>
       </c>
@@ -8951,10 +9158,10 @@
       <c r="B41" s="26"/>
       <c r="C41" s="77"/>
       <c r="D41" s="77"/>
-      <c r="E41" s="104" t="s">
+      <c r="E41" s="114" t="s">
         <v>185</v>
       </c>
-      <c r="F41" s="104"/>
+      <c r="F41" s="114"/>
       <c r="G41" s="70">
         <v>1421000</v>
       </c>
@@ -8966,10 +9173,10 @@
       <c r="B42" s="26"/>
       <c r="C42" s="74"/>
       <c r="D42" s="74"/>
-      <c r="E42" s="104" t="s">
+      <c r="E42" s="114" t="s">
         <v>164</v>
       </c>
-      <c r="F42" s="104"/>
+      <c r="F42" s="114"/>
       <c r="G42" s="70">
         <f>G39-G40+G41</f>
         <v>2799000</v>
@@ -9007,15 +9214,15 @@
       <c r="G45" s="75"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="100" t="s">
+      <c r="A46" s="110" t="s">
         <v>170</v>
       </c>
-      <c r="B46" s="101"/>
-      <c r="C46" s="101"/>
-      <c r="D46" s="101"/>
-      <c r="E46" s="101"/>
-      <c r="F46" s="101"/>
-      <c r="G46" s="102"/>
+      <c r="B46" s="111"/>
+      <c r="C46" s="111"/>
+      <c r="D46" s="111"/>
+      <c r="E46" s="111"/>
+      <c r="F46" s="111"/>
+      <c r="G46" s="112"/>
     </row>
     <row r="47" spans="1:7" ht="60.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A47" s="49"/>
@@ -9072,48 +9279,48 @@
       <c r="G1" s="93"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="107" t="s">
+      <c r="A2" s="117" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="109"/>
+      <c r="B2" s="118"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="119"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="110" t="s">
         <v>246</v>
       </c>
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="102"/>
+      <c r="B3" s="111"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="112"/>
     </row>
     <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.85">
-      <c r="A4" s="100" t="s">
+      <c r="A4" s="110" t="s">
         <v>244</v>
       </c>
-      <c r="B4" s="101"/>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="102"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="112"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="97" t="s">
+      <c r="A5" s="107" t="s">
         <v>247</v>
       </c>
-      <c r="B5" s="98"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="99"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="109"/>
     </row>
     <row r="6" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="31"/>
@@ -10262,10 +10469,10 @@
       <c r="B57" s="90"/>
       <c r="C57" s="90"/>
       <c r="D57" s="90"/>
-      <c r="E57" s="103" t="s">
+      <c r="E57" s="113" t="s">
         <v>162</v>
       </c>
-      <c r="F57" s="103"/>
+      <c r="F57" s="113"/>
       <c r="G57" s="69">
         <f>SUM(G8:G56)</f>
         <v>6978600</v>
@@ -10278,10 +10485,10 @@
       <c r="B58" s="26"/>
       <c r="C58" s="88"/>
       <c r="D58" s="88"/>
-      <c r="E58" s="104" t="s">
+      <c r="E58" s="114" t="s">
         <v>163</v>
       </c>
-      <c r="F58" s="104"/>
+      <c r="F58" s="114"/>
       <c r="G58" s="70">
         <v>700</v>
       </c>
@@ -10293,10 +10500,10 @@
       <c r="B59" s="26"/>
       <c r="C59" s="88"/>
       <c r="D59" s="88"/>
-      <c r="E59" s="104" t="s">
+      <c r="E59" s="114" t="s">
         <v>185</v>
       </c>
-      <c r="F59" s="104"/>
+      <c r="F59" s="114"/>
       <c r="G59" s="70">
         <v>1421000</v>
       </c>
@@ -10308,10 +10515,10 @@
       <c r="B60" s="26"/>
       <c r="C60" s="85"/>
       <c r="D60" s="85"/>
-      <c r="E60" s="104" t="s">
+      <c r="E60" s="114" t="s">
         <v>164</v>
       </c>
-      <c r="F60" s="104"/>
+      <c r="F60" s="114"/>
       <c r="G60" s="70">
         <f>G57-G58+G59</f>
         <v>8398900</v>
@@ -10349,15 +10556,15 @@
       <c r="G63" s="86"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64" s="100" t="s">
+      <c r="A64" s="110" t="s">
         <v>170</v>
       </c>
-      <c r="B64" s="101"/>
-      <c r="C64" s="101"/>
-      <c r="D64" s="101"/>
-      <c r="E64" s="101"/>
-      <c r="F64" s="101"/>
-      <c r="G64" s="102"/>
+      <c r="B64" s="111"/>
+      <c r="C64" s="111"/>
+      <c r="D64" s="111"/>
+      <c r="E64" s="111"/>
+      <c r="F64" s="111"/>
+      <c r="G64" s="112"/>
     </row>
     <row r="65" spans="1:7" ht="60.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A65" s="49"/>
@@ -10390,8 +10597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView showGridLines="0" rightToLeft="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.55000000000000004"/>
@@ -10414,48 +10621,48 @@
       <c r="G1" s="93"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="107" t="s">
+      <c r="A2" s="117" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="109"/>
+      <c r="B2" s="118"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="119"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="110" t="s">
         <v>286</v>
       </c>
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="102"/>
+      <c r="B3" s="111"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="112"/>
     </row>
     <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.85">
-      <c r="A4" s="100" t="s">
+      <c r="A4" s="110" t="s">
         <v>244</v>
       </c>
-      <c r="B4" s="101"/>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="102"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="112"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="97" t="s">
+      <c r="A5" s="107" t="s">
         <v>247</v>
       </c>
-      <c r="B5" s="98"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="99"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="109"/>
     </row>
     <row r="6" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="31"/>
@@ -10860,10 +11067,10 @@
       <c r="B25" s="90"/>
       <c r="C25" s="90"/>
       <c r="D25" s="90"/>
-      <c r="E25" s="103" t="s">
+      <c r="E25" s="113" t="s">
         <v>162</v>
       </c>
-      <c r="F25" s="103"/>
+      <c r="F25" s="113"/>
       <c r="G25" s="69">
         <f>SUM(G8:G24)</f>
         <v>3343300</v>
@@ -10876,10 +11083,10 @@
       <c r="B26" s="26"/>
       <c r="C26" s="88"/>
       <c r="D26" s="88"/>
-      <c r="E26" s="104" t="s">
+      <c r="E26" s="114" t="s">
         <v>163</v>
       </c>
-      <c r="F26" s="104"/>
+      <c r="F26" s="114"/>
       <c r="G26" s="70">
         <v>300</v>
       </c>
@@ -10891,10 +11098,10 @@
       <c r="B27" s="26"/>
       <c r="C27" s="88"/>
       <c r="D27" s="88"/>
-      <c r="E27" s="104" t="s">
+      <c r="E27" s="114" t="s">
         <v>185</v>
       </c>
-      <c r="F27" s="104"/>
+      <c r="F27" s="114"/>
       <c r="G27" s="70">
         <v>0</v>
       </c>
@@ -10906,10 +11113,10 @@
       <c r="B28" s="26"/>
       <c r="C28" s="85"/>
       <c r="D28" s="85"/>
-      <c r="E28" s="104" t="s">
+      <c r="E28" s="114" t="s">
         <v>164</v>
       </c>
-      <c r="F28" s="104"/>
+      <c r="F28" s="114"/>
       <c r="G28" s="70">
         <f>G25-G26+G27</f>
         <v>3343000</v>
@@ -10947,15 +11154,15 @@
       <c r="G31" s="86"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="100" t="s">
+      <c r="A32" s="110" t="s">
         <v>170</v>
       </c>
-      <c r="B32" s="101"/>
-      <c r="C32" s="101"/>
-      <c r="D32" s="101"/>
-      <c r="E32" s="101"/>
-      <c r="F32" s="101"/>
-      <c r="G32" s="102"/>
+      <c r="B32" s="111"/>
+      <c r="C32" s="111"/>
+      <c r="D32" s="111"/>
+      <c r="E32" s="111"/>
+      <c r="F32" s="111"/>
+      <c r="G32" s="112"/>
     </row>
     <row r="33" spans="1:7" ht="60.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A33" s="49"/>
@@ -10982,4 +11189,1328 @@
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="84" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G66"/>
+  <sheetViews>
+    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="G60" sqref="G60"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="6" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.69921875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="5.8984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.3984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.296875" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.796875" style="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="101"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="103"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="117" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" s="118"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="119"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="110" t="s">
+        <v>300</v>
+      </c>
+      <c r="B3" s="111"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="112"/>
+    </row>
+    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.85">
+      <c r="A4" s="110" t="s">
+        <v>301</v>
+      </c>
+      <c r="B4" s="111"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="112"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="107" t="s">
+        <v>340</v>
+      </c>
+      <c r="B5" s="108"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="109"/>
+    </row>
+    <row r="6" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A6" s="31"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="32"/>
+    </row>
+    <row r="7" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="53">
+        <v>1</v>
+      </c>
+      <c r="B8" s="54" t="s">
+        <v>302</v>
+      </c>
+      <c r="C8" s="55">
+        <v>1</v>
+      </c>
+      <c r="D8" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="66">
+        <v>75000</v>
+      </c>
+      <c r="F8" s="56"/>
+      <c r="G8" s="64">
+        <f>E8*C8*(1-F8)</f>
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="37">
+        <f>A8+1</f>
+        <v>2</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="C9" s="8">
+        <v>1</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="67">
+        <v>65000</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="65">
+        <f t="shared" ref="G9:G57" si="0">E9*C9*(1-F9)</f>
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="53">
+        <f t="shared" ref="A10:A57" si="1">A9+1</f>
+        <v>3</v>
+      </c>
+      <c r="B10" s="54" t="s">
+        <v>304</v>
+      </c>
+      <c r="C10" s="55">
+        <v>1</v>
+      </c>
+      <c r="D10" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="66">
+        <v>65000</v>
+      </c>
+      <c r="F10" s="56"/>
+      <c r="G10" s="64">
+        <f t="shared" si="0"/>
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="37">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="C11" s="8">
+        <v>1</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="67">
+        <v>65000</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="65">
+        <f t="shared" si="0"/>
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="53">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B12" s="54" t="s">
+        <v>306</v>
+      </c>
+      <c r="C12" s="55">
+        <v>2</v>
+      </c>
+      <c r="D12" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="66">
+        <v>19000</v>
+      </c>
+      <c r="F12" s="56"/>
+      <c r="G12" s="64">
+        <f t="shared" si="0"/>
+        <v>38000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="37">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="C13" s="8">
+        <v>72</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="67">
+        <v>2150</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="65">
+        <f t="shared" si="0"/>
+        <v>154800</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="53">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B14" s="54" t="s">
+        <v>308</v>
+      </c>
+      <c r="C14" s="55">
+        <v>2</v>
+      </c>
+      <c r="D14" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="66">
+        <v>20000</v>
+      </c>
+      <c r="F14" s="56"/>
+      <c r="G14" s="64">
+        <f t="shared" si="0"/>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="37">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="C15" s="8">
+        <v>1</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="67">
+        <v>20000</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="65">
+        <f t="shared" si="0"/>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="53">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B16" s="54" t="s">
+        <v>311</v>
+      </c>
+      <c r="C16" s="55">
+        <v>6</v>
+      </c>
+      <c r="D16" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="66">
+        <v>4000</v>
+      </c>
+      <c r="F16" s="56"/>
+      <c r="G16" s="64">
+        <f t="shared" si="0"/>
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="37">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C17" s="8">
+        <v>50</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="67">
+        <v>4500</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="65">
+        <f t="shared" si="0"/>
+        <v>225000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="53">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B18" s="54" t="s">
+        <v>313</v>
+      </c>
+      <c r="C18" s="55">
+        <v>70</v>
+      </c>
+      <c r="D18" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="66">
+        <v>2250</v>
+      </c>
+      <c r="F18" s="56"/>
+      <c r="G18" s="64">
+        <f t="shared" si="0"/>
+        <v>157500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="37">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="C19" s="8">
+        <v>1</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="67">
+        <v>50000</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" s="65">
+        <f t="shared" si="0"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="53">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B20" s="54" t="s">
+        <v>314</v>
+      </c>
+      <c r="C20" s="55">
+        <v>6</v>
+      </c>
+      <c r="D20" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="66">
+        <v>5000</v>
+      </c>
+      <c r="F20" s="56"/>
+      <c r="G20" s="64">
+        <f t="shared" si="0"/>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="37">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="C21" s="8">
+        <v>44</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="67">
+        <v>1500</v>
+      </c>
+      <c r="F21" s="5"/>
+      <c r="G21" s="65">
+        <f t="shared" si="0"/>
+        <v>66000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="53">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B22" s="54" t="s">
+        <v>316</v>
+      </c>
+      <c r="C22" s="55">
+        <v>1</v>
+      </c>
+      <c r="D22" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="66">
+        <v>30000</v>
+      </c>
+      <c r="F22" s="56"/>
+      <c r="G22" s="64">
+        <f t="shared" si="0"/>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="37">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="C23" s="8">
+        <v>12</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="67">
+        <v>9000</v>
+      </c>
+      <c r="F23" s="5"/>
+      <c r="G23" s="65">
+        <f t="shared" si="0"/>
+        <v>108000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="53">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B24" s="54" t="s">
+        <v>318</v>
+      </c>
+      <c r="C24" s="55">
+        <v>50</v>
+      </c>
+      <c r="D24" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="66">
+        <v>45000</v>
+      </c>
+      <c r="F24" s="56"/>
+      <c r="G24" s="64">
+        <f t="shared" si="0"/>
+        <v>2250000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="37">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="C25" s="8">
+        <v>2</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="67">
+        <v>13500</v>
+      </c>
+      <c r="F25" s="5"/>
+      <c r="G25" s="65">
+        <f t="shared" si="0"/>
+        <v>27000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="53">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B26" s="54" t="s">
+        <v>320</v>
+      </c>
+      <c r="C26" s="55">
+        <v>2</v>
+      </c>
+      <c r="D26" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="66">
+        <v>3500</v>
+      </c>
+      <c r="F26" s="56"/>
+      <c r="G26" s="64">
+        <f t="shared" si="0"/>
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="37">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C27" s="8">
+        <v>12</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="67">
+        <v>6000</v>
+      </c>
+      <c r="F27" s="5"/>
+      <c r="G27" s="65">
+        <f t="shared" si="0"/>
+        <v>72000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="53">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="B28" s="54" t="s">
+        <v>321</v>
+      </c>
+      <c r="C28" s="55">
+        <v>1</v>
+      </c>
+      <c r="D28" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="66">
+        <v>43000</v>
+      </c>
+      <c r="F28" s="56"/>
+      <c r="G28" s="64">
+        <f t="shared" si="0"/>
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="37">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C29" s="8">
+        <v>6</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="67">
+        <v>12500</v>
+      </c>
+      <c r="F29" s="5"/>
+      <c r="G29" s="65">
+        <f t="shared" si="0"/>
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="53">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="B30" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="C30" s="55">
+        <v>24</v>
+      </c>
+      <c r="D30" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="66">
+        <v>3000</v>
+      </c>
+      <c r="F30" s="56"/>
+      <c r="G30" s="64">
+        <f t="shared" si="0"/>
+        <v>72000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="37">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="C31" s="8">
+        <v>50</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="67">
+        <v>1500</v>
+      </c>
+      <c r="F31" s="5"/>
+      <c r="G31" s="65">
+        <f t="shared" si="0"/>
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="53">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="B32" s="54" t="s">
+        <v>324</v>
+      </c>
+      <c r="C32" s="55">
+        <v>3</v>
+      </c>
+      <c r="D32" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="66">
+        <v>75000</v>
+      </c>
+      <c r="F32" s="56"/>
+      <c r="G32" s="64">
+        <f t="shared" si="0"/>
+        <v>225000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="37">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="C33" s="8">
+        <v>100</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="67">
+        <v>1200</v>
+      </c>
+      <c r="F33" s="5"/>
+      <c r="G33" s="65">
+        <f t="shared" si="0"/>
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="53">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="B34" s="54" t="s">
+        <v>326</v>
+      </c>
+      <c r="C34" s="55">
+        <v>20</v>
+      </c>
+      <c r="D34" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="66">
+        <v>1300</v>
+      </c>
+      <c r="F34" s="56"/>
+      <c r="G34" s="64">
+        <f t="shared" si="0"/>
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="37">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C35" s="8">
+        <v>45</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="67">
+        <v>3500</v>
+      </c>
+      <c r="F35" s="5"/>
+      <c r="G35" s="65">
+        <f t="shared" si="0"/>
+        <v>157500</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="53">
+        <v>43</v>
+      </c>
+      <c r="B36" s="54" t="s">
+        <v>339</v>
+      </c>
+      <c r="C36" s="55">
+        <v>5</v>
+      </c>
+      <c r="D36" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="66">
+        <v>7000</v>
+      </c>
+      <c r="F36" s="56"/>
+      <c r="G36" s="64">
+        <f t="shared" si="0"/>
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="37">
+        <f>A35+1</f>
+        <v>29</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="C37" s="8">
+        <v>1</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="67">
+        <v>100000</v>
+      </c>
+      <c r="F37" s="5"/>
+      <c r="G37" s="65">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="53">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="B38" s="54" t="s">
+        <v>329</v>
+      </c>
+      <c r="C38" s="55">
+        <v>12</v>
+      </c>
+      <c r="D38" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="66">
+        <v>5000</v>
+      </c>
+      <c r="F38" s="56"/>
+      <c r="G38" s="64">
+        <f t="shared" si="0"/>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="37">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C39" s="8">
+        <v>2</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="67">
+        <v>13500</v>
+      </c>
+      <c r="F39" s="5"/>
+      <c r="G39" s="65">
+        <f t="shared" si="0"/>
+        <v>27000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="53">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="B40" s="54" t="s">
+        <v>330</v>
+      </c>
+      <c r="C40" s="55">
+        <v>6</v>
+      </c>
+      <c r="D40" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="66">
+        <v>15200</v>
+      </c>
+      <c r="F40" s="56"/>
+      <c r="G40" s="64">
+        <f t="shared" si="0"/>
+        <v>91200</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="37">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C41" s="8">
+        <v>6</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="67">
+        <v>7000</v>
+      </c>
+      <c r="F41" s="5"/>
+      <c r="G41" s="65">
+        <f t="shared" si="0"/>
+        <v>42000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="53">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="B42" s="54" t="s">
+        <v>331</v>
+      </c>
+      <c r="C42" s="55">
+        <v>1</v>
+      </c>
+      <c r="D42" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="66">
+        <v>38000</v>
+      </c>
+      <c r="F42" s="56">
+        <v>0.3</v>
+      </c>
+      <c r="G42" s="64">
+        <f t="shared" si="0"/>
+        <v>26600</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="37">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="C43" s="8">
+        <v>1</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="67">
+        <v>4500</v>
+      </c>
+      <c r="F43" s="5"/>
+      <c r="G43" s="65">
+        <f t="shared" si="0"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="53">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="B44" s="54" t="s">
+        <v>332</v>
+      </c>
+      <c r="C44" s="55">
+        <v>2</v>
+      </c>
+      <c r="D44" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" s="66">
+        <v>13000</v>
+      </c>
+      <c r="F44" s="56"/>
+      <c r="G44" s="64">
+        <f t="shared" si="0"/>
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="37">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="C45" s="8">
+        <v>2</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" s="67">
+        <v>48000</v>
+      </c>
+      <c r="F45" s="5"/>
+      <c r="G45" s="65">
+        <f t="shared" si="0"/>
+        <v>96000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="53">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="B46" s="54" t="s">
+        <v>334</v>
+      </c>
+      <c r="C46" s="55">
+        <v>2</v>
+      </c>
+      <c r="D46" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" s="66">
+        <v>28000</v>
+      </c>
+      <c r="F46" s="56"/>
+      <c r="G46" s="64">
+        <f t="shared" si="0"/>
+        <v>56000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="37"/>
+      <c r="B47" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="C47" s="8">
+        <v>1</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" s="67">
+        <v>13500</v>
+      </c>
+      <c r="F47" s="5"/>
+      <c r="G47" s="65">
+        <f t="shared" si="0"/>
+        <v>13500</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="53">
+        <f>A46+1</f>
+        <v>39</v>
+      </c>
+      <c r="B48" s="54" t="s">
+        <v>335</v>
+      </c>
+      <c r="C48" s="55">
+        <v>1</v>
+      </c>
+      <c r="D48" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" s="66">
+        <v>14000</v>
+      </c>
+      <c r="F48" s="56"/>
+      <c r="G48" s="64">
+        <f t="shared" si="0"/>
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="37">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="C49" s="8">
+        <v>100</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" s="67">
+        <v>1600</v>
+      </c>
+      <c r="F49" s="5"/>
+      <c r="G49" s="65">
+        <f t="shared" si="0"/>
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="53">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="B50" s="54" t="s">
+        <v>337</v>
+      </c>
+      <c r="C50" s="55">
+        <v>2</v>
+      </c>
+      <c r="D50" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" s="66">
+        <v>7000</v>
+      </c>
+      <c r="F50" s="56"/>
+      <c r="G50" s="64">
+        <f t="shared" si="0"/>
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="37">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="B51" s="4"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="67"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="53">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="B52" s="54"/>
+      <c r="C52" s="55"/>
+      <c r="D52" s="55"/>
+      <c r="E52" s="66"/>
+      <c r="F52" s="56"/>
+      <c r="G52" s="64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="37">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="B53" s="4"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="67"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="53">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="B54" s="54"/>
+      <c r="C54" s="55"/>
+      <c r="D54" s="55"/>
+      <c r="E54" s="66"/>
+      <c r="F54" s="56"/>
+      <c r="G54" s="64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="37">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="B55" s="4"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="67"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="53">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="B56" s="54"/>
+      <c r="C56" s="55"/>
+      <c r="D56" s="55"/>
+      <c r="E56" s="66"/>
+      <c r="F56" s="56"/>
+      <c r="G56" s="64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A57" s="37">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="B57" s="4"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="67"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="18.600000000000001" x14ac:dyDescent="0.6">
+      <c r="A58" s="99"/>
+      <c r="B58" s="100"/>
+      <c r="C58" s="100"/>
+      <c r="D58" s="100"/>
+      <c r="E58" s="113" t="s">
+        <v>162</v>
+      </c>
+      <c r="F58" s="113"/>
+      <c r="G58" s="69">
+        <f>SUM(G8:G57)</f>
+        <v>5128600</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="18.600000000000001" x14ac:dyDescent="0.6">
+      <c r="A59" s="44" t="s">
+        <v>169</v>
+      </c>
+      <c r="B59" s="26"/>
+      <c r="C59" s="98"/>
+      <c r="D59" s="98"/>
+      <c r="E59" s="114" t="s">
+        <v>163</v>
+      </c>
+      <c r="F59" s="114"/>
+      <c r="G59" s="70">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="18.600000000000001" x14ac:dyDescent="0.6">
+      <c r="A60" s="44" t="s">
+        <v>168</v>
+      </c>
+      <c r="B60" s="26"/>
+      <c r="C60" s="98"/>
+      <c r="D60" s="98"/>
+      <c r="E60" s="114" t="s">
+        <v>185</v>
+      </c>
+      <c r="F60" s="114"/>
+      <c r="G60" s="70"/>
+    </row>
+    <row r="61" spans="1:7" ht="18.600000000000001" x14ac:dyDescent="0.6">
+      <c r="A61" s="44" t="s">
+        <v>167</v>
+      </c>
+      <c r="B61" s="26"/>
+      <c r="C61" s="95"/>
+      <c r="D61" s="95"/>
+      <c r="E61" s="114" t="s">
+        <v>164</v>
+      </c>
+      <c r="F61" s="114"/>
+      <c r="G61" s="70">
+        <f>G58-G59+G60</f>
+        <v>5128000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="47" t="s">
+        <v>172</v>
+      </c>
+      <c r="B62" s="95"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="25"/>
+      <c r="E62" s="25"/>
+      <c r="F62" s="25"/>
+      <c r="G62" s="46"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="94" t="s">
+        <v>171</v>
+      </c>
+      <c r="B63" s="95"/>
+      <c r="C63" s="95"/>
+      <c r="D63" s="95"/>
+      <c r="E63" s="95"/>
+      <c r="F63" s="95"/>
+      <c r="G63" s="96"/>
+    </row>
+    <row r="64" spans="1:7" ht="4.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="97"/>
+      <c r="B64" s="68"/>
+      <c r="C64" s="95"/>
+      <c r="D64" s="95"/>
+      <c r="E64" s="95"/>
+      <c r="F64" s="95"/>
+      <c r="G64" s="96"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" s="110" t="s">
+        <v>170</v>
+      </c>
+      <c r="B65" s="111"/>
+      <c r="C65" s="111"/>
+      <c r="D65" s="111"/>
+      <c r="E65" s="111"/>
+      <c r="F65" s="111"/>
+      <c r="G65" s="112"/>
+    </row>
+    <row r="66" spans="1:7" ht="60.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A66" s="49"/>
+      <c r="B66" s="50"/>
+      <c r="C66" s="51"/>
+      <c r="D66" s="51"/>
+      <c r="E66" s="51"/>
+      <c r="F66" s="51"/>
+      <c r="G66" s="52"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="A65:G65"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E59:F59"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="84" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="39" max="6" man="1"/>
+  </rowBreaks>
+</worksheet>
 </file>
--- a/Factor.xlsx
+++ b/Factor.xlsx
@@ -4,28 +4,32 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="754" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="754" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="2" r:id="rId1"/>
     <sheet name="f-22-tavana" sheetId="16" r:id="rId2"/>
     <sheet name="f-23-abbas" sheetId="17" r:id="rId3"/>
-    <sheet name="Esfahan-kharid" sheetId="18" r:id="rId4"/>
-    <sheet name="f-24" sheetId="20" r:id="rId5"/>
-    <sheet name="f-25-m-101" sheetId="22" r:id="rId6"/>
-    <sheet name="f-25-m-102" sheetId="23" r:id="rId7"/>
-    <sheet name="f-27" sheetId="24" r:id="rId8"/>
+    <sheet name="f-24" sheetId="20" r:id="rId4"/>
+    <sheet name="f-25-m-101" sheetId="22" r:id="rId5"/>
+    <sheet name="f-25-m-102" sheetId="23" r:id="rId6"/>
+    <sheet name="f-27" sheetId="24" r:id="rId7"/>
+    <sheet name="f-28" sheetId="25" r:id="rId8"/>
+    <sheet name="Esfahan-kharid" sheetId="26" r:id="rId9"/>
+    <sheet name="f-31" sheetId="27" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1'!$A$7:$G$154</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'1'!$A$1:$G$162</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'Esfahan-kharid'!$A$1:$G$33</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">'Esfahan-kharid'!$A$1:$G$32</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'f-22-tavana'!$A$1:$G$47</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'f-23-abbas'!$A$1:$G$47</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'f-24'!$A$1:$G$47</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'f-25-m-101'!$A$1:$G$65</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">'f-25-m-102'!$A$1:$G$33</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">'f-27'!$A$1:$G$66</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'f-24'!$A$1:$G$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'f-25-m-101'!$A$1:$G$65</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'f-25-m-102'!$A$1:$G$33</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'f-27'!$A$1:$G$66</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">'f-28'!$A$1:$G$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="9">'f-31'!$A$1:$G$36</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'1'!$7:$7</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -38,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="347">
   <si>
     <t>نام محصول</t>
   </si>
@@ -792,24 +796,12 @@
     <t xml:space="preserve">دفتر 50 برگ طلقی فانتزی نقاشی </t>
   </si>
   <si>
-    <t>جاکارتی قفل دار</t>
-  </si>
-  <si>
-    <t>دماسنج قابدار کوچک</t>
-  </si>
-  <si>
     <t>گواش 8رنگ نئون</t>
   </si>
   <si>
     <t>خودکار نامرئی</t>
   </si>
   <si>
-    <t>مداد 36رنگ فلزی دوک</t>
-  </si>
-  <si>
-    <t>مداد همراه سرمدادی عروسکی</t>
-  </si>
-  <si>
     <t>سرمدادی سیلیکونی</t>
   </si>
   <si>
@@ -826,9 +818,6 @@
   </si>
   <si>
     <t>شیطونگ ژله ای</t>
-  </si>
-  <si>
-    <t>آکواریومی تک شاخ</t>
   </si>
   <si>
     <t>پایه چسب 606</t>
@@ -1269,6 +1258,143 @@
   </si>
   <si>
     <t xml:space="preserve">  صورت حساب آقای / خانم : عباس نژاد          شماره تماس : </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                                                         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="B Nazanin"/>
+        <charset val="178"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="B Nazanin"/>
+        <charset val="178"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="B Nazanin"/>
+        <charset val="178"/>
+      </rPr>
+      <t xml:space="preserve">پخش نوشت افزار بامداد  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="B Nazanin"/>
+        <charset val="178"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="B Nazanin"/>
+        <charset val="178"/>
+      </rPr>
+      <t xml:space="preserve">                     تاریخ :  1399/10/24</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                 فاکتور فروش                                             شماره فاکتور : 00424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  صورت حساب آقای / خانم : توانا       شماره تماس : </t>
+  </si>
+  <si>
+    <t>ماژیک وایت برد 8رنگ پریمو کنکو</t>
+  </si>
+  <si>
+    <t>جاقلمی سه گوش</t>
+  </si>
+  <si>
+    <t>کیف طلقی کش دار سهند</t>
+  </si>
+  <si>
+    <t>مداد رنگی 36 فلزی ووک</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                 فاکتور فروش                                             شماره فاکتور : 00426</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                                                         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="B Nazanin"/>
+        <charset val="178"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="B Nazanin"/>
+        <charset val="178"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="B Nazanin"/>
+        <charset val="178"/>
+      </rPr>
+      <t xml:space="preserve">پخش نوشت افزار بامداد  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="B Nazanin"/>
+        <charset val="178"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="B Nazanin"/>
+        <charset val="178"/>
+      </rPr>
+      <t xml:space="preserve">                     تاریخ :  1399/10/25</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">  صورت حساب آقای / خانم : عباس نژاد       شماره تماس : </t>
+  </si>
+  <si>
+    <t>ماژیک وایت برد اسنومن تک رنگ</t>
   </si>
 </sst>
 </file>
@@ -1703,7 +1829,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1885,11 +2011,66 @@
     <xf numFmtId="165" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1921,7 +2102,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2339,48 +2519,48 @@
       <c r="G1" s="30"/>
     </row>
     <row r="2" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="104" t="s">
+      <c r="A2" s="122" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="106"/>
+      <c r="B2" s="123"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="124"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="107" t="s">
+      <c r="A3" s="125" t="s">
         <v>166</v>
       </c>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="109"/>
+      <c r="B3" s="126"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="127"/>
     </row>
     <row r="4" spans="1:8" ht="27" x14ac:dyDescent="0.85">
-      <c r="A4" s="107" t="s">
+      <c r="A4" s="125" t="s">
         <v>165</v>
       </c>
-      <c r="B4" s="108"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="109"/>
+      <c r="B4" s="126"/>
+      <c r="C4" s="126"/>
+      <c r="D4" s="126"/>
+      <c r="E4" s="126"/>
+      <c r="F4" s="126"/>
+      <c r="G4" s="127"/>
     </row>
     <row r="5" spans="1:8" ht="23.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="107" t="s">
+      <c r="A5" s="125" t="s">
         <v>161</v>
       </c>
-      <c r="B5" s="108"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
-      <c r="F5" s="108"/>
-      <c r="G5" s="109"/>
+      <c r="B5" s="126"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="126"/>
+      <c r="F5" s="126"/>
+      <c r="G5" s="127"/>
     </row>
     <row r="6" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="31"/>
@@ -5943,14 +6123,14 @@
       <c r="H154" s="19"/>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A155" s="115"/>
-      <c r="B155" s="116"/>
-      <c r="C155" s="116"/>
-      <c r="D155" s="116"/>
-      <c r="E155" s="113" t="s">
+      <c r="A155" s="133"/>
+      <c r="B155" s="134"/>
+      <c r="C155" s="134"/>
+      <c r="D155" s="134"/>
+      <c r="E155" s="131" t="s">
         <v>162</v>
       </c>
-      <c r="F155" s="113"/>
+      <c r="F155" s="131"/>
       <c r="G155" s="43">
         <f>G157+G156</f>
         <v>13084520</v>
@@ -5964,10 +6144,10 @@
       <c r="B156" s="26"/>
       <c r="C156" s="20"/>
       <c r="D156" s="20"/>
-      <c r="E156" s="114" t="s">
+      <c r="E156" s="132" t="s">
         <v>163</v>
       </c>
-      <c r="F156" s="114"/>
+      <c r="F156" s="132"/>
       <c r="G156" s="45">
         <v>225258</v>
       </c>
@@ -5980,10 +6160,10 @@
       <c r="B157" s="26"/>
       <c r="C157" s="13"/>
       <c r="D157" s="13"/>
-      <c r="E157" s="114" t="s">
+      <c r="E157" s="132" t="s">
         <v>164</v>
       </c>
-      <c r="F157" s="114"/>
+      <c r="F157" s="132"/>
       <c r="G157" s="45">
         <f>SUM(G8:G154)</f>
         <v>12859262</v>
@@ -6012,26 +6192,26 @@
       <c r="G159" s="48"/>
     </row>
     <row r="160" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A160" s="107" t="s">
+      <c r="A160" s="125" t="s">
         <v>171</v>
       </c>
-      <c r="B160" s="108"/>
-      <c r="C160" s="108"/>
-      <c r="D160" s="108"/>
+      <c r="B160" s="126"/>
+      <c r="C160" s="126"/>
+      <c r="D160" s="126"/>
       <c r="E160" s="13"/>
       <c r="F160" s="13"/>
       <c r="G160" s="48"/>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A161" s="110" t="s">
+      <c r="A161" s="128" t="s">
         <v>170</v>
       </c>
-      <c r="B161" s="111"/>
-      <c r="C161" s="111"/>
-      <c r="D161" s="111"/>
-      <c r="E161" s="111"/>
-      <c r="F161" s="111"/>
-      <c r="G161" s="112"/>
+      <c r="B161" s="129"/>
+      <c r="C161" s="129"/>
+      <c r="D161" s="129"/>
+      <c r="E161" s="129"/>
+      <c r="F161" s="129"/>
+      <c r="G161" s="130"/>
     </row>
     <row r="162" spans="1:7" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A162" s="49"/>
@@ -6057,6 +6237,577 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="96" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G36"/>
+  <sheetViews>
+    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="6" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.69921875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="5.8984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.3984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.296875" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.796875" style="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="119"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="121"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="135" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" s="136"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="137"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="128" t="s">
+        <v>343</v>
+      </c>
+      <c r="B3" s="129"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="129"/>
+      <c r="G3" s="130"/>
+    </row>
+    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.85">
+      <c r="A4" s="128" t="s">
+        <v>344</v>
+      </c>
+      <c r="B4" s="129"/>
+      <c r="C4" s="129"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="130"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="125" t="s">
+        <v>345</v>
+      </c>
+      <c r="B5" s="126"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="126"/>
+      <c r="F5" s="126"/>
+      <c r="G5" s="127"/>
+    </row>
+    <row r="6" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A6" s="31"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="32"/>
+    </row>
+    <row r="7" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="53">
+        <v>1</v>
+      </c>
+      <c r="B8" s="54" t="s">
+        <v>258</v>
+      </c>
+      <c r="C8" s="55">
+        <v>12</v>
+      </c>
+      <c r="D8" s="55">
+        <v>4500</v>
+      </c>
+      <c r="E8" s="66">
+        <v>4500</v>
+      </c>
+      <c r="F8" s="56"/>
+      <c r="G8" s="64">
+        <f>E8*C8*(1-F8)</f>
+        <v>54000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="37">
+        <f>A8+1</f>
+        <v>2</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="C9" s="8">
+        <v>10</v>
+      </c>
+      <c r="D9" s="8">
+        <v>6500</v>
+      </c>
+      <c r="E9" s="67">
+        <v>6100</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="65">
+        <f t="shared" ref="G9:G27" si="0">E9*C9*(1-F9)</f>
+        <v>61000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="53">
+        <f t="shared" ref="A10:A27" si="1">A9+1</f>
+        <v>3</v>
+      </c>
+      <c r="B10" s="54" t="s">
+        <v>276</v>
+      </c>
+      <c r="C10" s="55">
+        <v>12</v>
+      </c>
+      <c r="D10" s="55">
+        <v>7500</v>
+      </c>
+      <c r="E10" s="66">
+        <v>9500</v>
+      </c>
+      <c r="F10" s="56"/>
+      <c r="G10" s="64">
+        <f t="shared" si="0"/>
+        <v>114000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="37">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C11" s="8">
+        <v>108</v>
+      </c>
+      <c r="D11" s="8">
+        <v>3950</v>
+      </c>
+      <c r="E11" s="67">
+        <v>1800</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="65">
+        <f t="shared" si="0"/>
+        <v>194400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="53">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B12" s="54" t="s">
+        <v>346</v>
+      </c>
+      <c r="C12" s="55">
+        <v>36</v>
+      </c>
+      <c r="D12" s="55">
+        <v>8700</v>
+      </c>
+      <c r="E12" s="66">
+        <v>45000</v>
+      </c>
+      <c r="F12" s="56"/>
+      <c r="G12" s="64">
+        <f t="shared" si="0"/>
+        <v>1620000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="37">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="53">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B14" s="54"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="37">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="53">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B16" s="54"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="37">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="53">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B18" s="54"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="37">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="53">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B20" s="54"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="37">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="53">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B22" s="54"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="37">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="53">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B24" s="54"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="37">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="53">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B26" s="54"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A27" s="37">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="18.600000000000001" x14ac:dyDescent="0.6">
+      <c r="A28" s="117"/>
+      <c r="B28" s="118"/>
+      <c r="C28" s="118"/>
+      <c r="D28" s="118"/>
+      <c r="E28" s="131" t="s">
+        <v>162</v>
+      </c>
+      <c r="F28" s="131"/>
+      <c r="G28" s="69">
+        <f>SUM(G8:G27)</f>
+        <v>2043400</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="18.600000000000001" x14ac:dyDescent="0.6">
+      <c r="A29" s="44" t="s">
+        <v>169</v>
+      </c>
+      <c r="B29" s="26"/>
+      <c r="C29" s="116"/>
+      <c r="D29" s="116"/>
+      <c r="E29" s="132" t="s">
+        <v>163</v>
+      </c>
+      <c r="F29" s="132"/>
+      <c r="G29" s="70">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="18.600000000000001" x14ac:dyDescent="0.6">
+      <c r="A30" s="44" t="s">
+        <v>168</v>
+      </c>
+      <c r="B30" s="26"/>
+      <c r="C30" s="116"/>
+      <c r="D30" s="116"/>
+      <c r="E30" s="132" t="s">
+        <v>185</v>
+      </c>
+      <c r="F30" s="132"/>
+      <c r="G30" s="70">
+        <v>2382000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="18.600000000000001" x14ac:dyDescent="0.6">
+      <c r="A31" s="44" t="s">
+        <v>167</v>
+      </c>
+      <c r="B31" s="26"/>
+      <c r="C31" s="113"/>
+      <c r="D31" s="113"/>
+      <c r="E31" s="132" t="s">
+        <v>164</v>
+      </c>
+      <c r="F31" s="132"/>
+      <c r="G31" s="70">
+        <f>G28-G29+G30</f>
+        <v>4425000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="47" t="s">
+        <v>172</v>
+      </c>
+      <c r="B32" s="113"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="46"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="112" t="s">
+        <v>171</v>
+      </c>
+      <c r="B33" s="113"/>
+      <c r="C33" s="113"/>
+      <c r="D33" s="113"/>
+      <c r="E33" s="113"/>
+      <c r="F33" s="113"/>
+      <c r="G33" s="114"/>
+    </row>
+    <row r="34" spans="1:7" ht="4.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="115"/>
+      <c r="B34" s="68"/>
+      <c r="C34" s="113"/>
+      <c r="D34" s="113"/>
+      <c r="E34" s="113"/>
+      <c r="F34" s="113"/>
+      <c r="G34" s="114"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="128" t="s">
+        <v>170</v>
+      </c>
+      <c r="B35" s="129"/>
+      <c r="C35" s="129"/>
+      <c r="D35" s="129"/>
+      <c r="E35" s="129"/>
+      <c r="F35" s="129"/>
+      <c r="G35" s="130"/>
+    </row>
+    <row r="36" spans="1:7" ht="60.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A36" s="49"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="52"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="84" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6088,48 +6839,48 @@
       <c r="G1" s="30"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="117" t="s">
+      <c r="A2" s="135" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="118"/>
-      <c r="C2" s="118"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="118"/>
-      <c r="F2" s="118"/>
-      <c r="G2" s="119"/>
+      <c r="B2" s="136"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="137"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="128" t="s">
         <v>186</v>
       </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="112"/>
+      <c r="B3" s="129"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="129"/>
+      <c r="G3" s="130"/>
     </row>
     <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.85">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="128" t="s">
         <v>187</v>
       </c>
-      <c r="B4" s="111"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="111"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="112"/>
+      <c r="B4" s="129"/>
+      <c r="C4" s="129"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="130"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="107" t="s">
+      <c r="A5" s="125" t="s">
         <v>184</v>
       </c>
-      <c r="B5" s="108"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
-      <c r="F5" s="108"/>
-      <c r="G5" s="109"/>
+      <c r="B5" s="126"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="126"/>
+      <c r="F5" s="126"/>
+      <c r="G5" s="127"/>
     </row>
     <row r="6" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="31"/>
@@ -6734,10 +7485,10 @@
       <c r="B39" s="63"/>
       <c r="C39" s="63"/>
       <c r="D39" s="63"/>
-      <c r="E39" s="113" t="s">
+      <c r="E39" s="131" t="s">
         <v>162</v>
       </c>
-      <c r="F39" s="113"/>
+      <c r="F39" s="131"/>
       <c r="G39" s="69">
         <f>SUM(G8:G38)</f>
         <v>1297800</v>
@@ -6750,10 +7501,10 @@
       <c r="B40" s="26"/>
       <c r="C40" s="61"/>
       <c r="D40" s="61"/>
-      <c r="E40" s="114" t="s">
+      <c r="E40" s="132" t="s">
         <v>163</v>
       </c>
-      <c r="F40" s="114"/>
+      <c r="F40" s="132"/>
       <c r="G40" s="70">
         <v>800</v>
       </c>
@@ -6765,10 +7516,10 @@
       <c r="B41" s="26"/>
       <c r="C41" s="61"/>
       <c r="D41" s="61"/>
-      <c r="E41" s="114" t="s">
+      <c r="E41" s="132" t="s">
         <v>185</v>
       </c>
-      <c r="F41" s="114"/>
+      <c r="F41" s="132"/>
       <c r="G41" s="70">
         <v>124000</v>
       </c>
@@ -6780,10 +7531,10 @@
       <c r="B42" s="26"/>
       <c r="C42" s="58"/>
       <c r="D42" s="58"/>
-      <c r="E42" s="114" t="s">
+      <c r="E42" s="132" t="s">
         <v>164</v>
       </c>
-      <c r="F42" s="114"/>
+      <c r="F42" s="132"/>
       <c r="G42" s="70">
         <f>ROUND(G39-G40+G41,0)</f>
         <v>1421000</v>
@@ -6821,15 +7572,15 @@
       <c r="G45" s="59"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="110" t="s">
+      <c r="A46" s="128" t="s">
         <v>170</v>
       </c>
-      <c r="B46" s="111"/>
-      <c r="C46" s="111"/>
-      <c r="D46" s="111"/>
-      <c r="E46" s="111"/>
-      <c r="F46" s="111"/>
-      <c r="G46" s="112"/>
+      <c r="B46" s="129"/>
+      <c r="C46" s="129"/>
+      <c r="D46" s="129"/>
+      <c r="E46" s="129"/>
+      <c r="F46" s="129"/>
+      <c r="G46" s="130"/>
     </row>
     <row r="47" spans="1:7" ht="60.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A47" s="49"/>
@@ -6886,48 +7637,48 @@
       <c r="G1" s="30"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="117" t="s">
+      <c r="A2" s="135" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="118"/>
-      <c r="C2" s="118"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="118"/>
-      <c r="F2" s="118"/>
-      <c r="G2" s="119"/>
+      <c r="B2" s="136"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="137"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="128" t="s">
         <v>189</v>
       </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="112"/>
+      <c r="B3" s="129"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="129"/>
+      <c r="G3" s="130"/>
     </row>
     <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.85">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="128" t="s">
         <v>187</v>
       </c>
-      <c r="B4" s="111"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="111"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="112"/>
+      <c r="B4" s="129"/>
+      <c r="C4" s="129"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="130"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="107" t="s">
+      <c r="A5" s="125" t="s">
         <v>188</v>
       </c>
-      <c r="B5" s="108"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
-      <c r="F5" s="108"/>
-      <c r="G5" s="109"/>
+      <c r="B5" s="126"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="126"/>
+      <c r="F5" s="126"/>
+      <c r="G5" s="127"/>
     </row>
     <row r="6" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="31"/>
@@ -7610,10 +8361,10 @@
       <c r="B39" s="63"/>
       <c r="C39" s="63"/>
       <c r="D39" s="63"/>
-      <c r="E39" s="113" t="s">
+      <c r="E39" s="131" t="s">
         <v>162</v>
       </c>
-      <c r="F39" s="113"/>
+      <c r="F39" s="131"/>
       <c r="G39" s="69">
         <f>SUM(G8:G38)</f>
         <v>2298550</v>
@@ -7626,10 +8377,10 @@
       <c r="B40" s="26"/>
       <c r="C40" s="61"/>
       <c r="D40" s="61"/>
-      <c r="E40" s="114" t="s">
+      <c r="E40" s="132" t="s">
         <v>163</v>
       </c>
-      <c r="F40" s="114"/>
+      <c r="F40" s="132"/>
       <c r="G40" s="70">
         <v>550</v>
       </c>
@@ -7641,10 +8392,10 @@
       <c r="B41" s="26"/>
       <c r="C41" s="61"/>
       <c r="D41" s="61"/>
-      <c r="E41" s="114" t="s">
+      <c r="E41" s="132" t="s">
         <v>185</v>
       </c>
-      <c r="F41" s="114"/>
+      <c r="F41" s="132"/>
       <c r="G41" s="70">
         <v>380000</v>
       </c>
@@ -7656,10 +8407,10 @@
       <c r="B42" s="26"/>
       <c r="C42" s="58"/>
       <c r="D42" s="58"/>
-      <c r="E42" s="114" t="s">
+      <c r="E42" s="132" t="s">
         <v>164</v>
       </c>
-      <c r="F42" s="114"/>
+      <c r="F42" s="132"/>
       <c r="G42" s="70">
         <f>G39-G40+G41</f>
         <v>2678000</v>
@@ -7697,15 +8448,15 @@
       <c r="G45" s="59"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="110" t="s">
+      <c r="A46" s="128" t="s">
         <v>170</v>
       </c>
-      <c r="B46" s="111"/>
-      <c r="C46" s="111"/>
-      <c r="D46" s="111"/>
-      <c r="E46" s="111"/>
-      <c r="F46" s="111"/>
-      <c r="G46" s="112"/>
+      <c r="B46" s="129"/>
+      <c r="C46" s="129"/>
+      <c r="D46" s="129"/>
+      <c r="E46" s="129"/>
+      <c r="F46" s="129"/>
+      <c r="G46" s="130"/>
     </row>
     <row r="47" spans="1:7" ht="60.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A47" s="49"/>
@@ -7736,733 +8487,6 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G33"/>
-  <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B2" sqref="A2:B22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="1" max="1" width="6" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.69921875" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="5.8984375" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.3984375" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.296875" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.796875" style="7" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
-        <v>155</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="G1" s="34" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="53">
-        <v>1</v>
-      </c>
-      <c r="B2" s="54" t="s">
-        <v>216</v>
-      </c>
-      <c r="C2" s="55">
-        <v>10</v>
-      </c>
-      <c r="D2" s="55" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="66">
-        <v>6500</v>
-      </c>
-      <c r="F2" s="56">
-        <v>0</v>
-      </c>
-      <c r="G2" s="64">
-        <f t="shared" ref="G2:G3" si="0">C2*E2*(1-F2)</f>
-        <v>65000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="37">
-        <f>A2+1</f>
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="C3" s="8">
-        <v>100</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="67">
-        <v>4800</v>
-      </c>
-      <c r="F3" s="5">
-        <v>0</v>
-      </c>
-      <c r="G3" s="65">
-        <f t="shared" si="0"/>
-        <v>480000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="53">
-        <f t="shared" ref="A4:A32" si="1">A3+1</f>
-        <v>3</v>
-      </c>
-      <c r="B4" s="54" t="s">
-        <v>218</v>
-      </c>
-      <c r="C4" s="55">
-        <v>12</v>
-      </c>
-      <c r="D4" s="55" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="66">
-        <v>43870</v>
-      </c>
-      <c r="F4" s="56">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="G4" s="64">
-        <f>C4*E4*(1-F4)</f>
-        <v>489589.19999999995</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="37">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="C5" s="8">
-        <v>300</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="67">
-        <v>4100</v>
-      </c>
-      <c r="F5" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="G5" s="65">
-        <f t="shared" ref="G5:G32" si="2">C5*E5*(1-F5)</f>
-        <v>1168500</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="53">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="B6" s="83" t="s">
-        <v>220</v>
-      </c>
-      <c r="C6" s="55">
-        <v>3</v>
-      </c>
-      <c r="D6" s="55" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="66">
-        <v>89000</v>
-      </c>
-      <c r="F6" s="56">
-        <v>0</v>
-      </c>
-      <c r="G6" s="64">
-        <f t="shared" si="2"/>
-        <v>267000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="37">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="C7" s="8">
-        <v>2</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="67"/>
-      <c r="F7" s="5">
-        <v>0</v>
-      </c>
-      <c r="G7" s="65">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="53">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="B8" s="54" t="s">
-        <v>222</v>
-      </c>
-      <c r="C8" s="55">
-        <v>144</v>
-      </c>
-      <c r="D8" s="55" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="66">
-        <v>3200</v>
-      </c>
-      <c r="F8" s="56">
-        <v>0.05</v>
-      </c>
-      <c r="G8" s="64">
-        <f t="shared" si="2"/>
-        <v>437760</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="37">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="C9" s="8">
-        <v>10</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="67">
-        <v>12500</v>
-      </c>
-      <c r="F9" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="G9" s="65">
-        <f t="shared" si="2"/>
-        <v>118750</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="53">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="B10" s="54" t="s">
-        <v>224</v>
-      </c>
-      <c r="C10" s="55">
-        <v>10</v>
-      </c>
-      <c r="D10" s="55" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="66">
-        <v>14500</v>
-      </c>
-      <c r="F10" s="56">
-        <v>0.05</v>
-      </c>
-      <c r="G10" s="64">
-        <f t="shared" si="2"/>
-        <v>137750</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="37">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="C11" s="8">
-        <v>10</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="67">
-        <v>6000</v>
-      </c>
-      <c r="F11" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="G11" s="65">
-        <f t="shared" si="2"/>
-        <v>57000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="53">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="B12" s="54" t="s">
-        <v>226</v>
-      </c>
-      <c r="C12" s="55">
-        <v>24</v>
-      </c>
-      <c r="D12" s="55" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="66">
-        <v>8500</v>
-      </c>
-      <c r="F12" s="56">
-        <v>0.05</v>
-      </c>
-      <c r="G12" s="64">
-        <f t="shared" si="2"/>
-        <v>193800</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="37">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="C13" s="8">
-        <v>100</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="67">
-        <v>3800</v>
-      </c>
-      <c r="F13" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="G13" s="65">
-        <f t="shared" si="2"/>
-        <v>361000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="53">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="B14" s="83" t="s">
-        <v>228</v>
-      </c>
-      <c r="C14" s="55">
-        <v>24</v>
-      </c>
-      <c r="D14" s="55" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="66">
-        <v>9500</v>
-      </c>
-      <c r="F14" s="56">
-        <v>0.05</v>
-      </c>
-      <c r="G14" s="64">
-        <f t="shared" si="2"/>
-        <v>216600</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="37">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="C15" s="8">
-        <v>12</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="67">
-        <v>1050</v>
-      </c>
-      <c r="F15" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="G15" s="65">
-        <f t="shared" si="2"/>
-        <v>11970</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="53">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="B16" s="54" t="s">
-        <v>230</v>
-      </c>
-      <c r="C16" s="55">
-        <v>4</v>
-      </c>
-      <c r="D16" s="55" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="66">
-        <v>32500</v>
-      </c>
-      <c r="F16" s="56">
-        <v>0.05</v>
-      </c>
-      <c r="G16" s="64">
-        <f t="shared" si="2"/>
-        <v>123500</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="37">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="C17" s="8">
-        <v>10</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="67">
-        <v>12700</v>
-      </c>
-      <c r="F17" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="G17" s="65">
-        <f t="shared" si="2"/>
-        <v>120650</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="53">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="B18" s="54" t="s">
-        <v>232</v>
-      </c>
-      <c r="C18" s="55">
-        <v>20</v>
-      </c>
-      <c r="D18" s="55" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="66">
-        <v>570</v>
-      </c>
-      <c r="F18" s="56">
-        <v>0.05</v>
-      </c>
-      <c r="G18" s="64">
-        <f t="shared" si="2"/>
-        <v>10830</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="37">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="C19" s="8">
-        <v>12</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="67">
-        <v>6000</v>
-      </c>
-      <c r="F19" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="G19" s="65">
-        <f t="shared" si="2"/>
-        <v>68400</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="53">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="B20" s="54" t="s">
-        <v>234</v>
-      </c>
-      <c r="C20" s="55">
-        <v>24</v>
-      </c>
-      <c r="D20" s="55" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="66">
-        <v>5000</v>
-      </c>
-      <c r="F20" s="56">
-        <v>0.05</v>
-      </c>
-      <c r="G20" s="64">
-        <f t="shared" si="2"/>
-        <v>114000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="37">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="C21" s="8">
-        <v>3</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="67">
-        <v>39000</v>
-      </c>
-      <c r="F21" s="5">
-        <v>0</v>
-      </c>
-      <c r="G21" s="65">
-        <f t="shared" si="2"/>
-        <v>117000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="53">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="B22" s="54"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="64">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="37">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="65">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="53">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="B24" s="54"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="66"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="64">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="37">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="65">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="53">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="B26" s="54"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="66"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="64">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="37">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="65">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="53">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="B28" s="54"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="66"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="64">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="37">
-        <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="65">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="53">
-        <f t="shared" si="1"/>
-        <v>29</v>
-      </c>
-      <c r="B30" s="54"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="66"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="64">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="37">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="65">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A32" s="53">
-        <f t="shared" si="1"/>
-        <v>31</v>
-      </c>
-      <c r="B32" s="54"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="66"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="64">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="18.600000000000001" x14ac:dyDescent="0.6">
-      <c r="A33" s="71"/>
-      <c r="B33" s="72"/>
-      <c r="C33" s="72"/>
-      <c r="D33" s="72"/>
-      <c r="E33" s="113" t="s">
-        <v>162</v>
-      </c>
-      <c r="F33" s="113"/>
-      <c r="G33" s="69">
-        <f>SUM(G2:G32)</f>
-        <v>4559099.2</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E33:F33"/>
-  </mergeCells>
-  <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="84" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView showGridLines="0" rightToLeft="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
@@ -8480,57 +8504,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="80"/>
+      <c r="A1" s="78"/>
       <c r="B1" s="28"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="82"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="80"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="117" t="s">
+      <c r="A2" s="135" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="118"/>
-      <c r="C2" s="118"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="118"/>
-      <c r="F2" s="118"/>
-      <c r="G2" s="119"/>
+      <c r="B2" s="136"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="137"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="110" t="s">
-        <v>242</v>
-      </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="112"/>
+      <c r="A3" s="128" t="s">
+        <v>237</v>
+      </c>
+      <c r="B3" s="129"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="129"/>
+      <c r="G3" s="130"/>
     </row>
     <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.85">
-      <c r="A4" s="110" t="s">
-        <v>244</v>
-      </c>
-      <c r="B4" s="111"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="111"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="112"/>
+      <c r="A4" s="128" t="s">
+        <v>239</v>
+      </c>
+      <c r="B4" s="129"/>
+      <c r="C4" s="129"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="130"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="107" t="s">
-        <v>243</v>
-      </c>
-      <c r="B5" s="108"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
-      <c r="F5" s="108"/>
-      <c r="G5" s="109"/>
+      <c r="A5" s="125" t="s">
+        <v>238</v>
+      </c>
+      <c r="B5" s="126"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="126"/>
+      <c r="F5" s="126"/>
+      <c r="G5" s="127"/>
     </row>
     <row r="6" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="31"/>
@@ -8615,7 +8639,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="54" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C10" s="55">
         <v>6</v>
@@ -8684,7 +8708,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C13" s="8">
         <v>4</v>
@@ -8730,7 +8754,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C15" s="8">
         <v>6</v>
@@ -8753,7 +8777,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="54" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C16" s="55">
         <v>72</v>
@@ -8776,7 +8800,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C17" s="8">
         <v>6</v>
@@ -8799,7 +8823,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="54" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C18" s="55">
         <v>10</v>
@@ -8822,7 +8846,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C19" s="8">
         <v>1</v>
@@ -9123,14 +9147,14 @@
       </c>
     </row>
     <row r="39" spans="1:7" ht="18.600000000000001" x14ac:dyDescent="0.6">
-      <c r="A39" s="78"/>
-      <c r="B39" s="79"/>
-      <c r="C39" s="79"/>
-      <c r="D39" s="79"/>
-      <c r="E39" s="113" t="s">
+      <c r="A39" s="76"/>
+      <c r="B39" s="77"/>
+      <c r="C39" s="77"/>
+      <c r="D39" s="77"/>
+      <c r="E39" s="131" t="s">
         <v>162</v>
       </c>
-      <c r="F39" s="113"/>
+      <c r="F39" s="131"/>
       <c r="G39" s="69">
         <f>SUM(G8:G38)</f>
         <v>1378700</v>
@@ -9141,12 +9165,12 @@
         <v>169</v>
       </c>
       <c r="B40" s="26"/>
-      <c r="C40" s="77"/>
-      <c r="D40" s="77"/>
-      <c r="E40" s="114" t="s">
+      <c r="C40" s="75"/>
+      <c r="D40" s="75"/>
+      <c r="E40" s="132" t="s">
         <v>163</v>
       </c>
-      <c r="F40" s="114"/>
+      <c r="F40" s="132"/>
       <c r="G40" s="70">
         <v>700</v>
       </c>
@@ -9156,12 +9180,12 @@
         <v>168</v>
       </c>
       <c r="B41" s="26"/>
-      <c r="C41" s="77"/>
-      <c r="D41" s="77"/>
-      <c r="E41" s="114" t="s">
+      <c r="C41" s="75"/>
+      <c r="D41" s="75"/>
+      <c r="E41" s="132" t="s">
         <v>185</v>
       </c>
-      <c r="F41" s="114"/>
+      <c r="F41" s="132"/>
       <c r="G41" s="70">
         <v>1421000</v>
       </c>
@@ -9171,12 +9195,12 @@
         <v>167</v>
       </c>
       <c r="B42" s="26"/>
-      <c r="C42" s="74"/>
-      <c r="D42" s="74"/>
-      <c r="E42" s="114" t="s">
+      <c r="C42" s="72"/>
+      <c r="D42" s="72"/>
+      <c r="E42" s="132" t="s">
         <v>164</v>
       </c>
-      <c r="F42" s="114"/>
+      <c r="F42" s="132"/>
       <c r="G42" s="70">
         <f>G39-G40+G41</f>
         <v>2799000</v>
@@ -9186,7 +9210,7 @@
       <c r="A43" s="47" t="s">
         <v>172</v>
       </c>
-      <c r="B43" s="74"/>
+      <c r="B43" s="72"/>
       <c r="C43" s="25"/>
       <c r="D43" s="25"/>
       <c r="E43" s="25"/>
@@ -9194,35 +9218,35 @@
       <c r="G43" s="46"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="73" t="s">
+      <c r="A44" s="71" t="s">
         <v>171</v>
       </c>
-      <c r="B44" s="74"/>
-      <c r="C44" s="74"/>
-      <c r="D44" s="74"/>
-      <c r="E44" s="74"/>
-      <c r="F44" s="74"/>
-      <c r="G44" s="75"/>
+      <c r="B44" s="72"/>
+      <c r="C44" s="72"/>
+      <c r="D44" s="72"/>
+      <c r="E44" s="72"/>
+      <c r="F44" s="72"/>
+      <c r="G44" s="73"/>
     </row>
     <row r="45" spans="1:7" ht="4.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="76"/>
+      <c r="A45" s="74"/>
       <c r="B45" s="68"/>
-      <c r="C45" s="74"/>
-      <c r="D45" s="74"/>
-      <c r="E45" s="74"/>
-      <c r="F45" s="74"/>
-      <c r="G45" s="75"/>
+      <c r="C45" s="72"/>
+      <c r="D45" s="72"/>
+      <c r="E45" s="72"/>
+      <c r="F45" s="72"/>
+      <c r="G45" s="73"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="110" t="s">
+      <c r="A46" s="128" t="s">
         <v>170</v>
       </c>
-      <c r="B46" s="111"/>
-      <c r="C46" s="111"/>
-      <c r="D46" s="111"/>
-      <c r="E46" s="111"/>
-      <c r="F46" s="111"/>
-      <c r="G46" s="112"/>
+      <c r="B46" s="129"/>
+      <c r="C46" s="129"/>
+      <c r="D46" s="129"/>
+      <c r="E46" s="129"/>
+      <c r="F46" s="129"/>
+      <c r="G46" s="130"/>
     </row>
     <row r="47" spans="1:7" ht="60.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A47" s="49"/>
@@ -9251,7 +9275,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G65"/>
   <sheetViews>
@@ -9270,57 +9294,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="91"/>
+      <c r="A1" s="89"/>
       <c r="B1" s="28"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="93"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="91"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="117" t="s">
+      <c r="A2" s="135" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="118"/>
-      <c r="C2" s="118"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="118"/>
-      <c r="F2" s="118"/>
-      <c r="G2" s="119"/>
+      <c r="B2" s="136"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="137"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="110" t="s">
-        <v>246</v>
-      </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="112"/>
+      <c r="A3" s="128" t="s">
+        <v>241</v>
+      </c>
+      <c r="B3" s="129"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="129"/>
+      <c r="G3" s="130"/>
     </row>
     <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.85">
-      <c r="A4" s="110" t="s">
-        <v>244</v>
-      </c>
-      <c r="B4" s="111"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="111"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="112"/>
+      <c r="A4" s="128" t="s">
+        <v>239</v>
+      </c>
+      <c r="B4" s="129"/>
+      <c r="C4" s="129"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="130"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="107" t="s">
-        <v>247</v>
-      </c>
-      <c r="B5" s="108"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
-      <c r="F5" s="108"/>
-      <c r="G5" s="109"/>
+      <c r="A5" s="125" t="s">
+        <v>242</v>
+      </c>
+      <c r="B5" s="126"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="126"/>
+      <c r="F5" s="126"/>
+      <c r="G5" s="127"/>
     </row>
     <row r="6" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="31"/>
@@ -9382,7 +9406,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C9" s="8">
         <v>42</v>
@@ -9405,7 +9429,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="54" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C10" s="55">
         <v>1</v>
@@ -9474,7 +9498,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C13" s="8">
         <v>12</v>
@@ -9497,7 +9521,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="54" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C14" s="55">
         <v>12</v>
@@ -9543,7 +9567,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="54" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C16" s="55">
         <v>10</v>
@@ -9566,7 +9590,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C17" s="8">
         <v>200</v>
@@ -9589,7 +9613,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="54" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C18" s="55">
         <v>120</v>
@@ -9612,7 +9636,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C19" s="8">
         <v>6</v>
@@ -9681,7 +9705,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="54" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C22" s="55">
         <v>1</v>
@@ -9704,7 +9728,7 @@
         <v>16</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C23" s="8">
         <v>2</v>
@@ -9727,7 +9751,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="54" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C24" s="55">
         <v>6</v>
@@ -9750,7 +9774,7 @@
         <v>18</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C25" s="8">
         <v>3</v>
@@ -9773,7 +9797,7 @@
         <v>19</v>
       </c>
       <c r="B26" s="54" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C26" s="55">
         <v>3</v>
@@ -9796,7 +9820,7 @@
         <v>20</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C27" s="8">
         <v>10</v>
@@ -9819,7 +9843,7 @@
         <v>21</v>
       </c>
       <c r="B28" s="54" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C28" s="55">
         <v>36</v>
@@ -9842,7 +9866,7 @@
         <v>22</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C29" s="8">
         <v>10</v>
@@ -9888,7 +9912,7 @@
         <v>24</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C31" s="8">
         <v>12</v>
@@ -9911,7 +9935,7 @@
         <v>25</v>
       </c>
       <c r="B32" s="54" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C32" s="55">
         <v>15</v>
@@ -9934,7 +9958,7 @@
         <v>26</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C33" s="8">
         <v>24</v>
@@ -9957,7 +9981,7 @@
         <v>27</v>
       </c>
       <c r="B34" s="54" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C34" s="55">
         <v>30</v>
@@ -9980,7 +10004,7 @@
         <v>28</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C35" s="8">
         <v>12</v>
@@ -10003,7 +10027,7 @@
         <v>29</v>
       </c>
       <c r="B36" s="54" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C36" s="55">
         <v>12</v>
@@ -10026,7 +10050,7 @@
         <v>30</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C37" s="8">
         <v>10</v>
@@ -10072,7 +10096,7 @@
         <v>32</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C39" s="8">
         <v>19</v>
@@ -10095,7 +10119,7 @@
         <v>33</v>
       </c>
       <c r="B40" s="54" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C40" s="55">
         <v>12</v>
@@ -10118,7 +10142,7 @@
         <v>34</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C41" s="8">
         <v>12</v>
@@ -10141,7 +10165,7 @@
         <v>35</v>
       </c>
       <c r="B42" s="54" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C42" s="55">
         <v>12</v>
@@ -10164,7 +10188,7 @@
         <v>36</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C43" s="8">
         <v>3</v>
@@ -10187,7 +10211,7 @@
         <v>37</v>
       </c>
       <c r="B44" s="54" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C44" s="55">
         <v>10</v>
@@ -10210,7 +10234,7 @@
         <v>38</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C45" s="8">
         <v>2</v>
@@ -10233,7 +10257,7 @@
         <v>39</v>
       </c>
       <c r="B46" s="54" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C46" s="55">
         <v>3</v>
@@ -10256,7 +10280,7 @@
         <v>40</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C47" s="8">
         <v>3</v>
@@ -10279,7 +10303,7 @@
         <v>41</v>
       </c>
       <c r="B48" s="54" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C48" s="55">
         <v>3</v>
@@ -10302,7 +10326,7 @@
         <v>42</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C49" s="8">
         <v>24</v>
@@ -10325,7 +10349,7 @@
         <v>43</v>
       </c>
       <c r="B50" s="54" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C50" s="55">
         <v>12</v>
@@ -10348,7 +10372,7 @@
         <v>44</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C51" s="8">
         <v>12</v>
@@ -10371,7 +10395,7 @@
         <v>45</v>
       </c>
       <c r="B52" s="54" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C52" s="55">
         <v>6</v>
@@ -10394,7 +10418,7 @@
         <v>46</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C53" s="8">
         <v>5</v>
@@ -10417,7 +10441,7 @@
         <v>47</v>
       </c>
       <c r="B54" s="54" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C54" s="55">
         <v>15</v>
@@ -10465,14 +10489,14 @@
       </c>
     </row>
     <row r="57" spans="1:7" ht="18.600000000000001" x14ac:dyDescent="0.6">
-      <c r="A57" s="89"/>
-      <c r="B57" s="90"/>
-      <c r="C57" s="90"/>
-      <c r="D57" s="90"/>
-      <c r="E57" s="113" t="s">
+      <c r="A57" s="87"/>
+      <c r="B57" s="88"/>
+      <c r="C57" s="88"/>
+      <c r="D57" s="88"/>
+      <c r="E57" s="131" t="s">
         <v>162</v>
       </c>
-      <c r="F57" s="113"/>
+      <c r="F57" s="131"/>
       <c r="G57" s="69">
         <f>SUM(G8:G56)</f>
         <v>6978600</v>
@@ -10483,12 +10507,12 @@
         <v>169</v>
       </c>
       <c r="B58" s="26"/>
-      <c r="C58" s="88"/>
-      <c r="D58" s="88"/>
-      <c r="E58" s="114" t="s">
+      <c r="C58" s="86"/>
+      <c r="D58" s="86"/>
+      <c r="E58" s="132" t="s">
         <v>163</v>
       </c>
-      <c r="F58" s="114"/>
+      <c r="F58" s="132"/>
       <c r="G58" s="70">
         <v>700</v>
       </c>
@@ -10498,12 +10522,12 @@
         <v>168</v>
       </c>
       <c r="B59" s="26"/>
-      <c r="C59" s="88"/>
-      <c r="D59" s="88"/>
-      <c r="E59" s="114" t="s">
+      <c r="C59" s="86"/>
+      <c r="D59" s="86"/>
+      <c r="E59" s="132" t="s">
         <v>185</v>
       </c>
-      <c r="F59" s="114"/>
+      <c r="F59" s="132"/>
       <c r="G59" s="70">
         <v>1421000</v>
       </c>
@@ -10513,12 +10537,12 @@
         <v>167</v>
       </c>
       <c r="B60" s="26"/>
-      <c r="C60" s="85"/>
-      <c r="D60" s="85"/>
-      <c r="E60" s="114" t="s">
+      <c r="C60" s="83"/>
+      <c r="D60" s="83"/>
+      <c r="E60" s="132" t="s">
         <v>164</v>
       </c>
-      <c r="F60" s="114"/>
+      <c r="F60" s="132"/>
       <c r="G60" s="70">
         <f>G57-G58+G59</f>
         <v>8398900</v>
@@ -10528,7 +10552,7 @@
       <c r="A61" s="47" t="s">
         <v>172</v>
       </c>
-      <c r="B61" s="85"/>
+      <c r="B61" s="83"/>
       <c r="C61" s="25"/>
       <c r="D61" s="25"/>
       <c r="E61" s="25"/>
@@ -10536,35 +10560,35 @@
       <c r="G61" s="46"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="84" t="s">
+      <c r="A62" s="82" t="s">
         <v>171</v>
       </c>
-      <c r="B62" s="85"/>
-      <c r="C62" s="85"/>
-      <c r="D62" s="85"/>
-      <c r="E62" s="85"/>
-      <c r="F62" s="85"/>
-      <c r="G62" s="86"/>
+      <c r="B62" s="83"/>
+      <c r="C62" s="83"/>
+      <c r="D62" s="83"/>
+      <c r="E62" s="83"/>
+      <c r="F62" s="83"/>
+      <c r="G62" s="84"/>
     </row>
     <row r="63" spans="1:7" ht="4.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="87"/>
+      <c r="A63" s="85"/>
       <c r="B63" s="68"/>
-      <c r="C63" s="85"/>
-      <c r="D63" s="85"/>
-      <c r="E63" s="85"/>
-      <c r="F63" s="85"/>
-      <c r="G63" s="86"/>
+      <c r="C63" s="83"/>
+      <c r="D63" s="83"/>
+      <c r="E63" s="83"/>
+      <c r="F63" s="83"/>
+      <c r="G63" s="84"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64" s="110" t="s">
+      <c r="A64" s="128" t="s">
         <v>170</v>
       </c>
-      <c r="B64" s="111"/>
-      <c r="C64" s="111"/>
-      <c r="D64" s="111"/>
-      <c r="E64" s="111"/>
-      <c r="F64" s="111"/>
-      <c r="G64" s="112"/>
+      <c r="B64" s="129"/>
+      <c r="C64" s="129"/>
+      <c r="D64" s="129"/>
+      <c r="E64" s="129"/>
+      <c r="F64" s="129"/>
+      <c r="G64" s="130"/>
     </row>
     <row r="65" spans="1:7" ht="60.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A65" s="49"/>
@@ -10593,7 +10617,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G33"/>
   <sheetViews>
@@ -10612,57 +10636,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="91"/>
+      <c r="A1" s="89"/>
       <c r="B1" s="28"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="93"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="91"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="117" t="s">
+      <c r="A2" s="135" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="118"/>
-      <c r="C2" s="118"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="118"/>
-      <c r="F2" s="118"/>
-      <c r="G2" s="119"/>
+      <c r="B2" s="136"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="137"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="110" t="s">
-        <v>286</v>
-      </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="112"/>
+      <c r="A3" s="128" t="s">
+        <v>281</v>
+      </c>
+      <c r="B3" s="129"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="129"/>
+      <c r="G3" s="130"/>
     </row>
     <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.85">
-      <c r="A4" s="110" t="s">
-        <v>244</v>
-      </c>
-      <c r="B4" s="111"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="111"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="112"/>
+      <c r="A4" s="128" t="s">
+        <v>239</v>
+      </c>
+      <c r="B4" s="129"/>
+      <c r="C4" s="129"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="130"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="107" t="s">
-        <v>247</v>
-      </c>
-      <c r="B5" s="108"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
-      <c r="F5" s="108"/>
-      <c r="G5" s="109"/>
+      <c r="A5" s="125" t="s">
+        <v>242</v>
+      </c>
+      <c r="B5" s="126"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="126"/>
+      <c r="F5" s="126"/>
+      <c r="G5" s="127"/>
     </row>
     <row r="6" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="31"/>
@@ -10701,7 +10725,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="54" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C8" s="55">
         <v>26</v>
@@ -10724,7 +10748,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C9" s="8">
         <v>24</v>
@@ -10747,7 +10771,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="54" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C10" s="55">
         <v>36</v>
@@ -10770,7 +10794,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C11" s="8">
         <v>36</v>
@@ -10793,7 +10817,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="54" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C12" s="55">
         <v>36</v>
@@ -10816,7 +10840,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C13" s="8">
         <v>24</v>
@@ -10839,7 +10863,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="54" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C14" s="55">
         <v>24</v>
@@ -10885,7 +10909,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="54" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="C16" s="55">
         <v>21</v>
@@ -10908,7 +10932,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C17" s="8">
         <v>14</v>
@@ -10931,7 +10955,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="54" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C18" s="55">
         <v>41</v>
@@ -10954,7 +10978,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C19" s="8">
         <v>22</v>
@@ -10977,7 +11001,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="54" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C20" s="55">
         <v>63</v>
@@ -11000,7 +11024,7 @@
         <v>14</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C21" s="8">
         <v>31</v>
@@ -11063,14 +11087,14 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="18.600000000000001" x14ac:dyDescent="0.6">
-      <c r="A25" s="89"/>
-      <c r="B25" s="90"/>
-      <c r="C25" s="90"/>
-      <c r="D25" s="90"/>
-      <c r="E25" s="113" t="s">
+      <c r="A25" s="87"/>
+      <c r="B25" s="88"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="131" t="s">
         <v>162</v>
       </c>
-      <c r="F25" s="113"/>
+      <c r="F25" s="131"/>
       <c r="G25" s="69">
         <f>SUM(G8:G24)</f>
         <v>3343300</v>
@@ -11081,12 +11105,12 @@
         <v>169</v>
       </c>
       <c r="B26" s="26"/>
-      <c r="C26" s="88"/>
-      <c r="D26" s="88"/>
-      <c r="E26" s="114" t="s">
+      <c r="C26" s="86"/>
+      <c r="D26" s="86"/>
+      <c r="E26" s="132" t="s">
         <v>163</v>
       </c>
-      <c r="F26" s="114"/>
+      <c r="F26" s="132"/>
       <c r="G26" s="70">
         <v>300</v>
       </c>
@@ -11096,12 +11120,12 @@
         <v>168</v>
       </c>
       <c r="B27" s="26"/>
-      <c r="C27" s="88"/>
-      <c r="D27" s="88"/>
-      <c r="E27" s="114" t="s">
+      <c r="C27" s="86"/>
+      <c r="D27" s="86"/>
+      <c r="E27" s="132" t="s">
         <v>185</v>
       </c>
-      <c r="F27" s="114"/>
+      <c r="F27" s="132"/>
       <c r="G27" s="70">
         <v>0</v>
       </c>
@@ -11111,12 +11135,12 @@
         <v>167</v>
       </c>
       <c r="B28" s="26"/>
-      <c r="C28" s="85"/>
-      <c r="D28" s="85"/>
-      <c r="E28" s="114" t="s">
+      <c r="C28" s="83"/>
+      <c r="D28" s="83"/>
+      <c r="E28" s="132" t="s">
         <v>164</v>
       </c>
-      <c r="F28" s="114"/>
+      <c r="F28" s="132"/>
       <c r="G28" s="70">
         <f>G25-G26+G27</f>
         <v>3343000</v>
@@ -11126,7 +11150,7 @@
       <c r="A29" s="47" t="s">
         <v>172</v>
       </c>
-      <c r="B29" s="85"/>
+      <c r="B29" s="83"/>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
       <c r="E29" s="25"/>
@@ -11134,35 +11158,35 @@
       <c r="G29" s="46"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="84" t="s">
+      <c r="A30" s="82" t="s">
         <v>171</v>
       </c>
-      <c r="B30" s="85"/>
-      <c r="C30" s="85"/>
-      <c r="D30" s="85"/>
-      <c r="E30" s="85"/>
-      <c r="F30" s="85"/>
-      <c r="G30" s="86"/>
+      <c r="B30" s="83"/>
+      <c r="C30" s="83"/>
+      <c r="D30" s="83"/>
+      <c r="E30" s="83"/>
+      <c r="F30" s="83"/>
+      <c r="G30" s="84"/>
     </row>
     <row r="31" spans="1:7" ht="4.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="87"/>
+      <c r="A31" s="85"/>
       <c r="B31" s="68"/>
-      <c r="C31" s="85"/>
-      <c r="D31" s="85"/>
-      <c r="E31" s="85"/>
-      <c r="F31" s="85"/>
-      <c r="G31" s="86"/>
+      <c r="C31" s="83"/>
+      <c r="D31" s="83"/>
+      <c r="E31" s="83"/>
+      <c r="F31" s="83"/>
+      <c r="G31" s="84"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="110" t="s">
+      <c r="A32" s="128" t="s">
         <v>170</v>
       </c>
-      <c r="B32" s="111"/>
-      <c r="C32" s="111"/>
-      <c r="D32" s="111"/>
-      <c r="E32" s="111"/>
-      <c r="F32" s="111"/>
-      <c r="G32" s="112"/>
+      <c r="B32" s="129"/>
+      <c r="C32" s="129"/>
+      <c r="D32" s="129"/>
+      <c r="E32" s="129"/>
+      <c r="F32" s="129"/>
+      <c r="G32" s="130"/>
     </row>
     <row r="33" spans="1:7" ht="60.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A33" s="49"/>
@@ -11191,11 +11215,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+    <sheetView showGridLines="0" rightToLeft="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
@@ -11210,57 +11234,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="101"/>
+      <c r="A1" s="99"/>
       <c r="B1" s="28"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="103"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="101"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="117" t="s">
+      <c r="A2" s="135" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="118"/>
-      <c r="C2" s="118"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="118"/>
-      <c r="F2" s="118"/>
-      <c r="G2" s="119"/>
+      <c r="B2" s="136"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="137"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="110" t="s">
-        <v>300</v>
-      </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="112"/>
+      <c r="A3" s="128" t="s">
+        <v>295</v>
+      </c>
+      <c r="B3" s="129"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="129"/>
+      <c r="G3" s="130"/>
     </row>
     <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.85">
-      <c r="A4" s="110" t="s">
-        <v>301</v>
-      </c>
-      <c r="B4" s="111"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="111"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="112"/>
+      <c r="A4" s="128" t="s">
+        <v>296</v>
+      </c>
+      <c r="B4" s="129"/>
+      <c r="C4" s="129"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="130"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="107" t="s">
-        <v>340</v>
-      </c>
-      <c r="B5" s="108"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
-      <c r="F5" s="108"/>
-      <c r="G5" s="109"/>
+      <c r="A5" s="125" t="s">
+        <v>335</v>
+      </c>
+      <c r="B5" s="126"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="126"/>
+      <c r="F5" s="126"/>
+      <c r="G5" s="127"/>
     </row>
     <row r="6" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="31"/>
@@ -11299,7 +11323,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="54" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C8" s="55">
         <v>1</v>
@@ -11322,7 +11346,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C9" s="8">
         <v>1</v>
@@ -11345,7 +11369,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="54" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C10" s="55">
         <v>1</v>
@@ -11368,7 +11392,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C11" s="8">
         <v>1</v>
@@ -11391,7 +11415,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="54" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C12" s="55">
         <v>2</v>
@@ -11414,7 +11438,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C13" s="8">
         <v>72</v>
@@ -11437,7 +11461,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="54" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C14" s="55">
         <v>2</v>
@@ -11460,7 +11484,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C15" s="8">
         <v>1</v>
@@ -11483,7 +11507,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="54" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C16" s="55">
         <v>6</v>
@@ -11506,7 +11530,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C17" s="8">
         <v>50</v>
@@ -11529,7 +11553,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="54" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C18" s="55">
         <v>70</v>
@@ -11552,7 +11576,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C19" s="8">
         <v>1</v>
@@ -11575,7 +11599,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="54" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C20" s="55">
         <v>6</v>
@@ -11598,7 +11622,7 @@
         <v>14</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C21" s="8">
         <v>44</v>
@@ -11621,7 +11645,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="54" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C22" s="55">
         <v>1</v>
@@ -11644,7 +11668,7 @@
         <v>16</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C23" s="8">
         <v>12</v>
@@ -11667,7 +11691,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="54" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C24" s="55">
         <v>50</v>
@@ -11690,7 +11714,7 @@
         <v>18</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C25" s="8">
         <v>2</v>
@@ -11713,7 +11737,7 @@
         <v>19</v>
       </c>
       <c r="B26" s="54" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C26" s="55">
         <v>2</v>
@@ -11736,7 +11760,7 @@
         <v>20</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C27" s="8">
         <v>12</v>
@@ -11759,7 +11783,7 @@
         <v>21</v>
       </c>
       <c r="B28" s="54" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C28" s="55">
         <v>1</v>
@@ -11805,7 +11829,7 @@
         <v>23</v>
       </c>
       <c r="B30" s="54" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C30" s="55">
         <v>24</v>
@@ -11828,7 +11852,7 @@
         <v>24</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C31" s="8">
         <v>50</v>
@@ -11851,7 +11875,7 @@
         <v>25</v>
       </c>
       <c r="B32" s="54" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C32" s="55">
         <v>3</v>
@@ -11874,7 +11898,7 @@
         <v>26</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C33" s="8">
         <v>100</v>
@@ -11897,7 +11921,7 @@
         <v>27</v>
       </c>
       <c r="B34" s="54" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C34" s="55">
         <v>20</v>
@@ -11920,7 +11944,7 @@
         <v>28</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C35" s="8">
         <v>45</v>
@@ -11942,7 +11966,7 @@
         <v>43</v>
       </c>
       <c r="B36" s="54" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C36" s="55">
         <v>5</v>
@@ -11965,7 +11989,7 @@
         <v>29</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C37" s="8">
         <v>1</v>
@@ -11988,7 +12012,7 @@
         <v>30</v>
       </c>
       <c r="B38" s="54" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C38" s="55">
         <v>12</v>
@@ -12011,7 +12035,7 @@
         <v>31</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C39" s="8">
         <v>2</v>
@@ -12034,7 +12058,7 @@
         <v>32</v>
       </c>
       <c r="B40" s="54" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="C40" s="55">
         <v>6</v>
@@ -12057,7 +12081,7 @@
         <v>33</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C41" s="8">
         <v>6</v>
@@ -12080,7 +12104,7 @@
         <v>34</v>
       </c>
       <c r="B42" s="54" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C42" s="55">
         <v>1</v>
@@ -12105,7 +12129,7 @@
         <v>35</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C43" s="8">
         <v>1</v>
@@ -12128,7 +12152,7 @@
         <v>36</v>
       </c>
       <c r="B44" s="54" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="C44" s="55">
         <v>2</v>
@@ -12151,7 +12175,7 @@
         <v>37</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C45" s="8">
         <v>2</v>
@@ -12174,7 +12198,7 @@
         <v>38</v>
       </c>
       <c r="B46" s="54" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C46" s="55">
         <v>2</v>
@@ -12194,7 +12218,7 @@
     <row r="47" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="37"/>
       <c r="B47" s="4" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C47" s="8">
         <v>1</v>
@@ -12217,7 +12241,7 @@
         <v>39</v>
       </c>
       <c r="B48" s="54" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C48" s="55">
         <v>1</v>
@@ -12240,7 +12264,7 @@
         <v>40</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="C49" s="8">
         <v>100</v>
@@ -12263,7 +12287,7 @@
         <v>41</v>
       </c>
       <c r="B50" s="54" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C50" s="55">
         <v>2</v>
@@ -12386,14 +12410,14 @@
       </c>
     </row>
     <row r="58" spans="1:7" ht="18.600000000000001" x14ac:dyDescent="0.6">
-      <c r="A58" s="99"/>
-      <c r="B58" s="100"/>
-      <c r="C58" s="100"/>
-      <c r="D58" s="100"/>
-      <c r="E58" s="113" t="s">
+      <c r="A58" s="97"/>
+      <c r="B58" s="98"/>
+      <c r="C58" s="98"/>
+      <c r="D58" s="98"/>
+      <c r="E58" s="131" t="s">
         <v>162</v>
       </c>
-      <c r="F58" s="113"/>
+      <c r="F58" s="131"/>
       <c r="G58" s="69">
         <f>SUM(G8:G57)</f>
         <v>5128600</v>
@@ -12404,12 +12428,12 @@
         <v>169</v>
       </c>
       <c r="B59" s="26"/>
-      <c r="C59" s="98"/>
-      <c r="D59" s="98"/>
-      <c r="E59" s="114" t="s">
+      <c r="C59" s="96"/>
+      <c r="D59" s="96"/>
+      <c r="E59" s="132" t="s">
         <v>163</v>
       </c>
-      <c r="F59" s="114"/>
+      <c r="F59" s="132"/>
       <c r="G59" s="70">
         <v>600</v>
       </c>
@@ -12419,12 +12443,12 @@
         <v>168</v>
       </c>
       <c r="B60" s="26"/>
-      <c r="C60" s="98"/>
-      <c r="D60" s="98"/>
-      <c r="E60" s="114" t="s">
+      <c r="C60" s="96"/>
+      <c r="D60" s="96"/>
+      <c r="E60" s="132" t="s">
         <v>185</v>
       </c>
-      <c r="F60" s="114"/>
+      <c r="F60" s="132"/>
       <c r="G60" s="70"/>
     </row>
     <row r="61" spans="1:7" ht="18.600000000000001" x14ac:dyDescent="0.6">
@@ -12432,12 +12456,12 @@
         <v>167</v>
       </c>
       <c r="B61" s="26"/>
-      <c r="C61" s="95"/>
-      <c r="D61" s="95"/>
-      <c r="E61" s="114" t="s">
+      <c r="C61" s="93"/>
+      <c r="D61" s="93"/>
+      <c r="E61" s="132" t="s">
         <v>164</v>
       </c>
-      <c r="F61" s="114"/>
+      <c r="F61" s="132"/>
       <c r="G61" s="70">
         <f>G58-G59+G60</f>
         <v>5128000</v>
@@ -12447,7 +12471,7 @@
       <c r="A62" s="47" t="s">
         <v>172</v>
       </c>
-      <c r="B62" s="95"/>
+      <c r="B62" s="93"/>
       <c r="C62" s="25"/>
       <c r="D62" s="25"/>
       <c r="E62" s="25"/>
@@ -12455,35 +12479,35 @@
       <c r="G62" s="46"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="94" t="s">
+      <c r="A63" s="92" t="s">
         <v>171</v>
       </c>
-      <c r="B63" s="95"/>
-      <c r="C63" s="95"/>
-      <c r="D63" s="95"/>
-      <c r="E63" s="95"/>
-      <c r="F63" s="95"/>
-      <c r="G63" s="96"/>
+      <c r="B63" s="93"/>
+      <c r="C63" s="93"/>
+      <c r="D63" s="93"/>
+      <c r="E63" s="93"/>
+      <c r="F63" s="93"/>
+      <c r="G63" s="94"/>
     </row>
     <row r="64" spans="1:7" ht="4.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64" s="97"/>
+      <c r="A64" s="95"/>
       <c r="B64" s="68"/>
-      <c r="C64" s="95"/>
-      <c r="D64" s="95"/>
-      <c r="E64" s="95"/>
-      <c r="F64" s="95"/>
-      <c r="G64" s="96"/>
+      <c r="C64" s="93"/>
+      <c r="D64" s="93"/>
+      <c r="E64" s="93"/>
+      <c r="F64" s="93"/>
+      <c r="G64" s="94"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65" s="110" t="s">
+      <c r="A65" s="128" t="s">
         <v>170</v>
       </c>
-      <c r="B65" s="111"/>
-      <c r="C65" s="111"/>
-      <c r="D65" s="111"/>
-      <c r="E65" s="111"/>
-      <c r="F65" s="111"/>
-      <c r="G65" s="112"/>
+      <c r="B65" s="129"/>
+      <c r="C65" s="129"/>
+      <c r="D65" s="129"/>
+      <c r="E65" s="129"/>
+      <c r="F65" s="129"/>
+      <c r="G65" s="130"/>
     </row>
     <row r="66" spans="1:7" ht="60.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A66" s="49"/>
@@ -12513,4 +12537,1275 @@
     <brk id="39" max="6" man="1"/>
   </rowBreaks>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G36"/>
+  <sheetViews>
+    <sheetView showGridLines="0" rightToLeft="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="6" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.69921875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="5.8984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.3984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.296875" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.796875" style="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="109"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="111"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="135" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" s="136"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="137"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="128" t="s">
+        <v>337</v>
+      </c>
+      <c r="B3" s="129"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="129"/>
+      <c r="G3" s="130"/>
+    </row>
+    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.85">
+      <c r="A4" s="128" t="s">
+        <v>336</v>
+      </c>
+      <c r="B4" s="129"/>
+      <c r="C4" s="129"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="130"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="125" t="s">
+        <v>338</v>
+      </c>
+      <c r="B5" s="126"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="126"/>
+      <c r="F5" s="126"/>
+      <c r="G5" s="127"/>
+    </row>
+    <row r="6" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A6" s="31"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="32"/>
+    </row>
+    <row r="7" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="53">
+        <v>1</v>
+      </c>
+      <c r="B8" s="54" t="s">
+        <v>215</v>
+      </c>
+      <c r="C8" s="55">
+        <v>12</v>
+      </c>
+      <c r="D8" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="66">
+        <v>4500</v>
+      </c>
+      <c r="F8" s="56"/>
+      <c r="G8" s="64">
+        <f>E8*C8*(1-F8)</f>
+        <v>54000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="37">
+        <f>A8+1</f>
+        <v>2</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="C9" s="8">
+        <v>12</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="67">
+        <v>6100</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="65">
+        <f t="shared" ref="G9:G27" si="0">E9*C9*(1-F9)</f>
+        <v>73200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="53">
+        <f t="shared" ref="A10:A27" si="1">A9+1</f>
+        <v>3</v>
+      </c>
+      <c r="B10" s="54" t="s">
+        <v>312</v>
+      </c>
+      <c r="C10" s="55">
+        <v>12</v>
+      </c>
+      <c r="D10" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="66">
+        <v>9500</v>
+      </c>
+      <c r="F10" s="56"/>
+      <c r="G10" s="64">
+        <f t="shared" si="0"/>
+        <v>114000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="37">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="C11" s="8">
+        <v>10</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="67">
+        <v>1800</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="65">
+        <f t="shared" si="0"/>
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="53">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B12" s="54" t="s">
+        <v>339</v>
+      </c>
+      <c r="C12" s="55">
+        <v>1</v>
+      </c>
+      <c r="D12" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="66">
+        <v>45000</v>
+      </c>
+      <c r="F12" s="56"/>
+      <c r="G12" s="64">
+        <f t="shared" si="0"/>
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="37">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="C13" s="8">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="67">
+        <v>15000</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="65">
+        <f t="shared" si="0"/>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="53">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B14" s="54" t="s">
+        <v>340</v>
+      </c>
+      <c r="C14" s="55">
+        <v>2</v>
+      </c>
+      <c r="D14" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="66">
+        <v>7500</v>
+      </c>
+      <c r="F14" s="56"/>
+      <c r="G14" s="64">
+        <f t="shared" si="0"/>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="37">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="53">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B16" s="54"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A17" s="37">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="53">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B18" s="54"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="37">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="53">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B20" s="54"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="37">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="53">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B22" s="54"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="37">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="53">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B24" s="54"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="37">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="53">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B26" s="54"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A27" s="37">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="18.600000000000001" x14ac:dyDescent="0.6">
+      <c r="A28" s="107"/>
+      <c r="B28" s="108"/>
+      <c r="C28" s="108"/>
+      <c r="D28" s="108"/>
+      <c r="E28" s="131" t="s">
+        <v>162</v>
+      </c>
+      <c r="F28" s="131"/>
+      <c r="G28" s="69">
+        <f>SUM(G8:G27)</f>
+        <v>334200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="18.600000000000001" x14ac:dyDescent="0.6">
+      <c r="A29" s="44" t="s">
+        <v>169</v>
+      </c>
+      <c r="B29" s="26"/>
+      <c r="C29" s="106"/>
+      <c r="D29" s="106"/>
+      <c r="E29" s="132" t="s">
+        <v>163</v>
+      </c>
+      <c r="F29" s="132"/>
+      <c r="G29" s="70">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="18.600000000000001" x14ac:dyDescent="0.6">
+      <c r="A30" s="44" t="s">
+        <v>168</v>
+      </c>
+      <c r="B30" s="26"/>
+      <c r="C30" s="106"/>
+      <c r="D30" s="106"/>
+      <c r="E30" s="132" t="s">
+        <v>185</v>
+      </c>
+      <c r="F30" s="132"/>
+      <c r="G30" s="70">
+        <v>2799000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="18.600000000000001" x14ac:dyDescent="0.6">
+      <c r="A31" s="44" t="s">
+        <v>167</v>
+      </c>
+      <c r="B31" s="26"/>
+      <c r="C31" s="103"/>
+      <c r="D31" s="103"/>
+      <c r="E31" s="132" t="s">
+        <v>164</v>
+      </c>
+      <c r="F31" s="132"/>
+      <c r="G31" s="70">
+        <f>G28-G29+G30</f>
+        <v>3133000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="47" t="s">
+        <v>172</v>
+      </c>
+      <c r="B32" s="103"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="46"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="102" t="s">
+        <v>171</v>
+      </c>
+      <c r="B33" s="103"/>
+      <c r="C33" s="103"/>
+      <c r="D33" s="103"/>
+      <c r="E33" s="103"/>
+      <c r="F33" s="103"/>
+      <c r="G33" s="104"/>
+    </row>
+    <row r="34" spans="1:7" ht="4.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="105"/>
+      <c r="B34" s="68"/>
+      <c r="C34" s="103"/>
+      <c r="D34" s="103"/>
+      <c r="E34" s="103"/>
+      <c r="F34" s="103"/>
+      <c r="G34" s="104"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="128" t="s">
+        <v>170</v>
+      </c>
+      <c r="B35" s="129"/>
+      <c r="C35" s="129"/>
+      <c r="D35" s="129"/>
+      <c r="E35" s="129"/>
+      <c r="F35" s="129"/>
+      <c r="G35" s="130"/>
+    </row>
+    <row r="36" spans="1:7" ht="60.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A36" s="49"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="52"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="84" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G32"/>
+  <sheetViews>
+    <sheetView showGridLines="0" rightToLeft="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="6" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.69921875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="5.8984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.3984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.296875" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.796875" style="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="53">
+        <v>1</v>
+      </c>
+      <c r="B2" s="54" t="s">
+        <v>334</v>
+      </c>
+      <c r="C2" s="55">
+        <v>50</v>
+      </c>
+      <c r="D2" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="66">
+        <v>5800</v>
+      </c>
+      <c r="F2" s="56">
+        <v>0.05</v>
+      </c>
+      <c r="G2" s="64">
+        <f t="shared" ref="G2:G3" si="0">C2*E2*(1-F2)</f>
+        <v>275500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="37">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C3" s="8">
+        <v>12</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="67">
+        <v>43870</v>
+      </c>
+      <c r="F3" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G3" s="65">
+        <f t="shared" si="0"/>
+        <v>489589.19999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="53">
+        <v>3</v>
+      </c>
+      <c r="B4" s="54" t="s">
+        <v>217</v>
+      </c>
+      <c r="C4" s="55">
+        <v>300</v>
+      </c>
+      <c r="D4" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="66">
+        <v>4100</v>
+      </c>
+      <c r="F4" s="56">
+        <v>0.05</v>
+      </c>
+      <c r="G4" s="64">
+        <f>C4*E4*(1-F4)</f>
+        <v>1168500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="37">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="C5" s="8">
+        <v>2</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="67">
+        <v>89000</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="65">
+        <f t="shared" ref="G5:G31" si="1">C5*E5*(1-F5)</f>
+        <v>178000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="53">
+        <v>5</v>
+      </c>
+      <c r="B6" s="81" t="s">
+        <v>324</v>
+      </c>
+      <c r="C6" s="55">
+        <v>24</v>
+      </c>
+      <c r="D6" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="66">
+        <v>4500</v>
+      </c>
+      <c r="F6" s="56">
+        <v>0.05</v>
+      </c>
+      <c r="G6" s="64">
+        <f t="shared" si="1"/>
+        <v>102600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="37">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C7" s="8">
+        <v>72</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="67">
+        <v>3200</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="G7" s="65">
+        <f t="shared" si="1"/>
+        <v>218880</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="53">
+        <v>7</v>
+      </c>
+      <c r="B8" s="54" t="s">
+        <v>219</v>
+      </c>
+      <c r="C8" s="55">
+        <v>10</v>
+      </c>
+      <c r="D8" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="66">
+        <v>12500</v>
+      </c>
+      <c r="F8" s="56">
+        <v>0.05</v>
+      </c>
+      <c r="G8" s="64">
+        <f t="shared" si="1"/>
+        <v>118750</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="37">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C9" s="8">
+        <v>10</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="67">
+        <v>14500</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="G9" s="65">
+        <f t="shared" si="1"/>
+        <v>137750</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="53">
+        <v>9</v>
+      </c>
+      <c r="B10" s="54" t="s">
+        <v>221</v>
+      </c>
+      <c r="C10" s="55">
+        <v>10</v>
+      </c>
+      <c r="D10" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="66">
+        <v>6000</v>
+      </c>
+      <c r="F10" s="56">
+        <v>0.05</v>
+      </c>
+      <c r="G10" s="64">
+        <f t="shared" si="1"/>
+        <v>57000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="37">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C11" s="8">
+        <v>24</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="67">
+        <v>8500</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="G11" s="65">
+        <f t="shared" si="1"/>
+        <v>193800</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="53">
+        <v>11</v>
+      </c>
+      <c r="B12" s="54" t="s">
+        <v>223</v>
+      </c>
+      <c r="C12" s="55">
+        <v>100</v>
+      </c>
+      <c r="D12" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="66">
+        <v>3800</v>
+      </c>
+      <c r="F12" s="56">
+        <v>0.05</v>
+      </c>
+      <c r="G12" s="64">
+        <f t="shared" si="1"/>
+        <v>361000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="53">
+        <v>13</v>
+      </c>
+      <c r="B13" s="81" t="s">
+        <v>224</v>
+      </c>
+      <c r="C13" s="55">
+        <v>12</v>
+      </c>
+      <c r="D13" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="66">
+        <v>10500</v>
+      </c>
+      <c r="F13" s="56">
+        <v>0.05</v>
+      </c>
+      <c r="G13" s="64">
+        <f t="shared" si="1"/>
+        <v>119700</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="37">
+        <v>14</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C14" s="8">
+        <v>4</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="67">
+        <v>32500</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="G14" s="65">
+        <f t="shared" si="1"/>
+        <v>123500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="53">
+        <v>15</v>
+      </c>
+      <c r="B15" s="54" t="s">
+        <v>226</v>
+      </c>
+      <c r="C15" s="55">
+        <v>10</v>
+      </c>
+      <c r="D15" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="66">
+        <v>12700</v>
+      </c>
+      <c r="F15" s="56">
+        <v>0.05</v>
+      </c>
+      <c r="G15" s="64">
+        <f t="shared" si="1"/>
+        <v>120650</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="37">
+        <v>16</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C16" s="8">
+        <v>40</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="67">
+        <v>570</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="G16" s="65">
+        <f t="shared" si="1"/>
+        <v>21660</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="53">
+        <v>17</v>
+      </c>
+      <c r="B17" s="54" t="s">
+        <v>228</v>
+      </c>
+      <c r="C17" s="55">
+        <v>12</v>
+      </c>
+      <c r="D17" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="66">
+        <v>6000</v>
+      </c>
+      <c r="F17" s="56">
+        <v>0.05</v>
+      </c>
+      <c r="G17" s="64">
+        <f t="shared" si="1"/>
+        <v>68400</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="37">
+        <v>18</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C18" s="8">
+        <v>24</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="67">
+        <v>5000</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="G18" s="65">
+        <f t="shared" si="1"/>
+        <v>114000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="53">
+        <v>19</v>
+      </c>
+      <c r="B19" s="54" t="s">
+        <v>230</v>
+      </c>
+      <c r="C19" s="55">
+        <v>3</v>
+      </c>
+      <c r="D19" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="66">
+        <v>39000</v>
+      </c>
+      <c r="F19" s="56">
+        <v>0</v>
+      </c>
+      <c r="G19" s="64">
+        <f t="shared" si="1"/>
+        <v>117000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="37">
+        <v>20</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="C20" s="8">
+        <v>72</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="67">
+        <v>11200</v>
+      </c>
+      <c r="F20" s="5"/>
+      <c r="G20" s="65">
+        <f t="shared" si="1"/>
+        <v>806400</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="53">
+        <f t="shared" ref="A21:A31" si="2">A20+1</f>
+        <v>21</v>
+      </c>
+      <c r="B21" s="54"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="37">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="53">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="B23" s="54"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="37">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="53">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="B25" s="54"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="37">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="53">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="B27" s="54"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="37">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="53">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="B29" s="54"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="37">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A31" s="53">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="B31" s="54"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="18.600000000000001" x14ac:dyDescent="0.6">
+      <c r="A32" s="117"/>
+      <c r="B32" s="118"/>
+      <c r="C32" s="118"/>
+      <c r="D32" s="118"/>
+      <c r="E32" s="131" t="s">
+        <v>162</v>
+      </c>
+      <c r="F32" s="131"/>
+      <c r="G32" s="69">
+        <f>SUM(G2:G31)</f>
+        <v>4792679.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E32:F32"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="84" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>